--- a/BackTest/2019-10-27 BackTest BSV.xlsx
+++ b/BackTest/2019-10-27 BackTest BSV.xlsx
@@ -6576,17 +6576,13 @@
         <v>152533.3333333333</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
-        <v>152400</v>
-      </c>
-      <c r="K177" t="n">
-        <v>152400</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
@@ -6615,280 +6611,230 @@
         <v>152133.3333333333</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>151500</v>
+      </c>
+      <c r="C179" t="n">
+        <v>151400</v>
+      </c>
+      <c r="D179" t="n">
+        <v>151500</v>
+      </c>
+      <c r="E179" t="n">
+        <v>151400</v>
+      </c>
+      <c r="F179" t="n">
+        <v>26.4095</v>
+      </c>
+      <c r="G179" t="n">
+        <v>151766.6666666667</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
         <v>152300</v>
       </c>
-      <c r="K178" t="n">
-        <v>152400</v>
-      </c>
-      <c r="L178" t="inlineStr">
+      <c r="C180" t="n">
+        <v>152300</v>
+      </c>
+      <c r="D180" t="n">
+        <v>152300</v>
+      </c>
+      <c r="E180" t="n">
+        <v>152300</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G180" t="n">
+        <v>151733.3333333333</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>151600</v>
+      </c>
+      <c r="C181" t="n">
+        <v>151600</v>
+      </c>
+      <c r="D181" t="n">
+        <v>151600</v>
+      </c>
+      <c r="E181" t="n">
+        <v>151600</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G181" t="n">
+        <v>151766.6666666667</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>151400</v>
+      </c>
+      <c r="C182" t="n">
+        <v>151400</v>
+      </c>
+      <c r="D182" t="n">
+        <v>151400</v>
+      </c>
+      <c r="E182" t="n">
+        <v>151400</v>
+      </c>
+      <c r="F182" t="n">
+        <v>24.605</v>
+      </c>
+      <c r="G182" t="n">
+        <v>151766.6666666667</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>152100</v>
+      </c>
+      <c r="C183" t="n">
+        <v>152100</v>
+      </c>
+      <c r="D183" t="n">
+        <v>152100</v>
+      </c>
+      <c r="E183" t="n">
+        <v>152100</v>
+      </c>
+      <c r="F183" t="n">
+        <v>1.5587</v>
+      </c>
+      <c r="G183" t="n">
+        <v>151700</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>151800</v>
+      </c>
+      <c r="C184" t="n">
+        <v>151400</v>
+      </c>
+      <c r="D184" t="n">
+        <v>151800</v>
+      </c>
+      <c r="E184" t="n">
+        <v>151400</v>
+      </c>
+      <c r="F184" t="n">
+        <v>40.9846</v>
+      </c>
+      <c r="G184" t="n">
+        <v>151633.3333333333</v>
+      </c>
+      <c r="H184" t="n">
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>152100</v>
+      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>151500</v>
-      </c>
-      <c r="C179" t="n">
-        <v>151400</v>
-      </c>
-      <c r="D179" t="n">
-        <v>151500</v>
-      </c>
-      <c r="E179" t="n">
-        <v>151400</v>
-      </c>
-      <c r="F179" t="n">
-        <v>26.4095</v>
-      </c>
-      <c r="G179" t="n">
-        <v>151766.6666666667</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="n">
-        <v>151500</v>
-      </c>
-      <c r="K179" t="n">
-        <v>152400</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>152300</v>
-      </c>
-      <c r="C180" t="n">
-        <v>152300</v>
-      </c>
-      <c r="D180" t="n">
-        <v>152300</v>
-      </c>
-      <c r="E180" t="n">
-        <v>152300</v>
-      </c>
-      <c r="F180" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="G180" t="n">
-        <v>151733.3333333333</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="n">
-        <v>152300</v>
-      </c>
-      <c r="K180" t="n">
-        <v>152400</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>151600</v>
-      </c>
-      <c r="C181" t="n">
-        <v>151600</v>
-      </c>
-      <c r="D181" t="n">
-        <v>151600</v>
-      </c>
-      <c r="E181" t="n">
-        <v>151600</v>
-      </c>
-      <c r="F181" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="G181" t="n">
-        <v>151766.6666666667</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="n">
-        <v>151600</v>
-      </c>
-      <c r="K181" t="n">
-        <v>152400</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>151400</v>
-      </c>
-      <c r="C182" t="n">
-        <v>151400</v>
-      </c>
-      <c r="D182" t="n">
-        <v>151400</v>
-      </c>
-      <c r="E182" t="n">
-        <v>151400</v>
-      </c>
-      <c r="F182" t="n">
-        <v>24.605</v>
-      </c>
-      <c r="G182" t="n">
-        <v>151766.6666666667</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="n">
-        <v>151400</v>
-      </c>
-      <c r="K182" t="n">
-        <v>152400</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>152100</v>
-      </c>
-      <c r="C183" t="n">
-        <v>152100</v>
-      </c>
-      <c r="D183" t="n">
-        <v>152100</v>
-      </c>
-      <c r="E183" t="n">
-        <v>152100</v>
-      </c>
-      <c r="F183" t="n">
-        <v>1.5587</v>
-      </c>
-      <c r="G183" t="n">
-        <v>151700</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>152100</v>
-      </c>
-      <c r="K183" t="n">
-        <v>152400</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>151800</v>
-      </c>
-      <c r="C184" t="n">
-        <v>151400</v>
-      </c>
-      <c r="D184" t="n">
-        <v>151800</v>
-      </c>
-      <c r="E184" t="n">
-        <v>151400</v>
-      </c>
-      <c r="F184" t="n">
-        <v>40.9846</v>
-      </c>
-      <c r="G184" t="n">
-        <v>151633.3333333333</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="n">
-        <v>151800</v>
-      </c>
-      <c r="K184" t="n">
-        <v>152400</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -6922,11 +6868,9 @@
         <v>0</v>
       </c>
       <c r="J185" t="n">
-        <v>151600</v>
-      </c>
-      <c r="K185" t="n">
-        <v>152400</v>
-      </c>
+        <v>151400</v>
+      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6965,11 +6909,9 @@
         <v>0</v>
       </c>
       <c r="J186" t="n">
-        <v>151500</v>
-      </c>
-      <c r="K186" t="n">
-        <v>152400</v>
-      </c>
+        <v>151600</v>
+      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7008,11 +6950,9 @@
         <v>0</v>
       </c>
       <c r="J187" t="n">
-        <v>150800</v>
-      </c>
-      <c r="K187" t="n">
-        <v>152400</v>
-      </c>
+        <v>150200</v>
+      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7051,11 +6991,9 @@
         <v>0</v>
       </c>
       <c r="J188" t="n">
-        <v>150000</v>
-      </c>
-      <c r="K188" t="n">
-        <v>152400</v>
-      </c>
+        <v>150100</v>
+      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7094,11 +7032,9 @@
         <v>0</v>
       </c>
       <c r="J189" t="n">
-        <v>150300</v>
-      </c>
-      <c r="K189" t="n">
-        <v>152400</v>
-      </c>
+        <v>150900</v>
+      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7131,17 +7067,13 @@
         <v>150766.6666666667</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
-        <v>150700</v>
-      </c>
-      <c r="K190" t="n">
-        <v>152400</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7174,17 +7106,13 @@
         <v>150900</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
-        <v>150700</v>
-      </c>
-      <c r="K191" t="n">
-        <v>152400</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7217,17 +7145,13 @@
         <v>152233.3333333333</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
-        <v>151400</v>
-      </c>
-      <c r="K192" t="n">
-        <v>152400</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7260,17 +7184,13 @@
         <v>153200</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
-        <v>154700</v>
-      </c>
-      <c r="K193" t="n">
-        <v>152400</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7303,17 +7223,13 @@
         <v>154166.6666666667</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
-        <v>153600</v>
-      </c>
-      <c r="K194" t="n">
-        <v>152400</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7346,17 +7262,13 @@
         <v>153866.6666666667</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
-        <v>154600</v>
-      </c>
-      <c r="K195" t="n">
-        <v>152400</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7389,17 +7301,13 @@
         <v>154133.3333333333</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="n">
-        <v>154600</v>
-      </c>
-      <c r="K196" t="n">
-        <v>152400</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7432,17 +7340,13 @@
         <v>154166.6666666667</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="n">
-        <v>154300</v>
-      </c>
-      <c r="K197" t="n">
-        <v>152400</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7475,17 +7379,13 @@
         <v>154100</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
-        <v>154300</v>
-      </c>
-      <c r="K198" t="n">
-        <v>152400</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7524,9 +7424,7 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7565,9 +7463,7 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7600,17 +7496,13 @@
         <v>153566.6666666667</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="n">
-        <v>153800</v>
-      </c>
-      <c r="K201" t="n">
-        <v>152400</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7643,17 +7535,13 @@
         <v>153666.6666666667</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="n">
-        <v>153200</v>
-      </c>
-      <c r="K202" t="n">
-        <v>152400</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7686,17 +7574,13 @@
         <v>153533.3333333333</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="n">
-        <v>153700</v>
-      </c>
-      <c r="K203" t="n">
-        <v>152400</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7729,17 +7613,13 @@
         <v>153700</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="n">
-        <v>153500</v>
-      </c>
-      <c r="K204" t="n">
-        <v>152400</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7772,17 +7652,13 @@
         <v>153833.3333333333</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="n">
-        <v>154200</v>
-      </c>
-      <c r="K205" t="n">
-        <v>152400</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7815,17 +7691,13 @@
         <v>154066.6666666667</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="n">
-        <v>153900</v>
-      </c>
-      <c r="K206" t="n">
-        <v>152400</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7864,9 +7736,7 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7905,9 +7775,7 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7946,9 +7814,7 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7987,9 +7853,7 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8028,9 +7892,7 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8069,9 +7931,7 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8110,9 +7970,7 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8151,9 +8009,7 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8192,9 +8048,7 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8233,9 +8087,7 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8274,9 +8126,7 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8315,9 +8165,7 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8356,9 +8204,7 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8397,9 +8243,7 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8438,9 +8282,7 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8479,9 +8321,7 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8520,9 +8360,7 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8561,9 +8399,7 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8602,9 +8438,7 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8643,9 +8477,7 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8684,9 +8516,7 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8725,9 +8555,7 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8766,9 +8594,7 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8807,9 +8633,7 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8848,9 +8672,7 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8889,9 +8711,7 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8930,9 +8750,7 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8971,9 +8789,7 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9012,9 +8828,7 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9053,9 +8867,7 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9094,9 +8906,7 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9135,9 +8945,7 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9176,9 +8984,7 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9217,9 +9023,7 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9258,9 +9062,7 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9299,9 +9101,7 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9340,9 +9140,7 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9381,9 +9179,7 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9422,9 +9218,7 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9463,9 +9257,7 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9504,9 +9296,7 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9545,9 +9335,7 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9586,9 +9374,7 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9627,9 +9413,7 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9668,9 +9452,7 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9709,9 +9491,7 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9750,9 +9530,7 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9791,9 +9569,7 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9832,9 +9608,7 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9873,9 +9647,7 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9914,9 +9686,7 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9955,9 +9725,7 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9996,9 +9764,7 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10037,9 +9803,7 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10078,9 +9842,7 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10119,9 +9881,7 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10160,9 +9920,7 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10201,9 +9959,7 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10242,9 +9998,7 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10283,9 +10037,7 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10324,9 +10076,7 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10365,9 +10115,7 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10406,9 +10154,7 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10447,9 +10193,7 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10488,9 +10232,7 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10529,9 +10271,7 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10570,9 +10310,7 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10611,9 +10349,7 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10652,9 +10388,7 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10693,9 +10427,7 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10734,9 +10466,7 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10775,9 +10505,7 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10816,9 +10544,7 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10857,9 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10898,9 +10622,7 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10939,9 +10661,7 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10980,9 +10700,7 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11021,9 +10739,7 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11062,9 +10778,7 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11103,9 +10817,7 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11144,9 +10856,7 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11185,9 +10895,7 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11226,9 +10934,7 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11267,9 +10973,7 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11308,9 +11012,7 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11349,9 +11051,7 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11390,9 +11090,7 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11431,9 +11129,7 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11472,9 +11168,7 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11513,9 +11207,7 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11554,9 +11246,7 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11595,9 +11285,7 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11636,9 +11324,7 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11677,9 +11363,7 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11718,9 +11402,7 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11759,9 +11441,7 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11800,9 +11480,7 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11841,9 +11519,7 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11882,9 +11558,7 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11923,9 +11597,7 @@
         <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11964,9 +11636,7 @@
         <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12005,9 +11675,7 @@
         <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12046,9 +11714,7 @@
         <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12087,9 +11753,7 @@
         <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12128,9 +11792,7 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12169,9 +11831,7 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12210,9 +11870,7 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12251,9 +11909,7 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12292,9 +11948,7 @@
         <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12333,9 +11987,7 @@
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12374,9 +12026,7 @@
         <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12415,9 +12065,7 @@
         <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12456,9 +12104,7 @@
         <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12497,9 +12143,7 @@
         <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12538,9 +12182,7 @@
         <v>0</v>
       </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12579,9 +12221,7 @@
         <v>0</v>
       </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12620,9 +12260,7 @@
         <v>0</v>
       </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12661,9 +12299,7 @@
         <v>0</v>
       </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12702,9 +12338,7 @@
         <v>0</v>
       </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12743,9 +12377,7 @@
         <v>0</v>
       </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12784,9 +12416,7 @@
         <v>0</v>
       </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12825,9 +12455,7 @@
         <v>0</v>
       </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12866,9 +12494,7 @@
         <v>0</v>
       </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12907,9 +12533,7 @@
         <v>0</v>
       </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12948,9 +12572,7 @@
         <v>0</v>
       </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12989,9 +12611,7 @@
         <v>0</v>
       </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13030,9 +12650,7 @@
         <v>0</v>
       </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13071,9 +12689,7 @@
         <v>0</v>
       </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13112,9 +12728,7 @@
         <v>0</v>
       </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13153,9 +12767,7 @@
         <v>0</v>
       </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13194,9 +12806,7 @@
         <v>0</v>
       </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13235,9 +12845,7 @@
         <v>0</v>
       </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13276,9 +12884,7 @@
         <v>0</v>
       </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13317,9 +12923,7 @@
         <v>0</v>
       </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13358,9 +12962,7 @@
         <v>0</v>
       </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13399,9 +13001,7 @@
         <v>0</v>
       </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13440,9 +13040,7 @@
         <v>0</v>
       </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13481,9 +13079,7 @@
         <v>0</v>
       </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13522,9 +13118,7 @@
         <v>0</v>
       </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13563,9 +13157,7 @@
         <v>0</v>
       </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13604,9 +13196,7 @@
         <v>0</v>
       </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13645,9 +13235,7 @@
         <v>0</v>
       </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13686,9 +13274,7 @@
         <v>0</v>
       </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13727,9 +13313,7 @@
         <v>0</v>
       </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13768,9 +13352,7 @@
         <v>0</v>
       </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13809,9 +13391,7 @@
         <v>0</v>
       </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13850,9 +13430,7 @@
         <v>0</v>
       </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13891,9 +13469,7 @@
         <v>0</v>
       </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13932,9 +13508,7 @@
         <v>0</v>
       </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13973,9 +13547,7 @@
         <v>0</v>
       </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14014,9 +13586,7 @@
         <v>0</v>
       </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14055,9 +13625,7 @@
         <v>0</v>
       </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14096,9 +13664,7 @@
         <v>0</v>
       </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14137,9 +13703,7 @@
         <v>0</v>
       </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14178,9 +13742,7 @@
         <v>0</v>
       </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14219,9 +13781,7 @@
         <v>0</v>
       </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14260,9 +13820,7 @@
         <v>0</v>
       </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14301,9 +13859,7 @@
         <v>0</v>
       </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14342,9 +13898,7 @@
         <v>0</v>
       </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14383,9 +13937,7 @@
         <v>0</v>
       </c>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14424,9 +13976,7 @@
         <v>0</v>
       </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14465,9 +14015,7 @@
         <v>0</v>
       </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14506,9 +14054,7 @@
         <v>0</v>
       </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14547,9 +14093,7 @@
         <v>0</v>
       </c>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14588,9 +14132,7 @@
         <v>0</v>
       </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14629,9 +14171,7 @@
         <v>0</v>
       </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14670,9 +14210,7 @@
         <v>0</v>
       </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14711,9 +14249,7 @@
         <v>0</v>
       </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14752,9 +14288,7 @@
         <v>0</v>
       </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14793,9 +14327,7 @@
         <v>0</v>
       </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14834,9 +14366,7 @@
         <v>0</v>
       </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14875,9 +14405,7 @@
         <v>0</v>
       </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14916,9 +14444,7 @@
         <v>0</v>
       </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14957,9 +14483,7 @@
         <v>0</v>
       </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14998,9 +14522,7 @@
         <v>0</v>
       </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15039,9 +14561,7 @@
         <v>0</v>
       </c>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15080,9 +14600,7 @@
         <v>0</v>
       </c>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15121,9 +14639,7 @@
         <v>0</v>
       </c>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15162,9 +14678,7 @@
         <v>0</v>
       </c>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15203,9 +14717,7 @@
         <v>0</v>
       </c>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15244,9 +14756,7 @@
         <v>0</v>
       </c>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15285,9 +14795,7 @@
         <v>0</v>
       </c>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15326,9 +14834,7 @@
         <v>0</v>
       </c>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15367,9 +14873,7 @@
         <v>0</v>
       </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15408,9 +14912,7 @@
         <v>0</v>
       </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15449,9 +14951,7 @@
         <v>0</v>
       </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15490,9 +14990,7 @@
         <v>0</v>
       </c>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15531,9 +15029,7 @@
         <v>0</v>
       </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15572,9 +15068,7 @@
         <v>0</v>
       </c>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15613,9 +15107,7 @@
         <v>0</v>
       </c>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15654,9 +15146,7 @@
         <v>0</v>
       </c>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15695,9 +15185,7 @@
         <v>0</v>
       </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15736,9 +15224,7 @@
         <v>0</v>
       </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15777,9 +15263,7 @@
         <v>0</v>
       </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15818,9 +15302,7 @@
         <v>0</v>
       </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15859,9 +15341,7 @@
         <v>0</v>
       </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15900,9 +15380,7 @@
         <v>0</v>
       </c>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15941,9 +15419,7 @@
         <v>0</v>
       </c>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15982,9 +15458,7 @@
         <v>0</v>
       </c>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16023,9 +15497,7 @@
         <v>0</v>
       </c>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16064,9 +15536,7 @@
         <v>0</v>
       </c>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16105,9 +15575,7 @@
         <v>0</v>
       </c>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16146,9 +15614,7 @@
         <v>0</v>
       </c>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16187,9 +15653,7 @@
         <v>0</v>
       </c>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16228,9 +15692,7 @@
         <v>0</v>
       </c>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16269,9 +15731,7 @@
         <v>0</v>
       </c>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16310,9 +15770,7 @@
         <v>0</v>
       </c>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16351,9 +15809,7 @@
         <v>0</v>
       </c>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16392,9 +15848,7 @@
         <v>0</v>
       </c>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16433,17 +15887,13 @@
         <v>1</v>
       </c>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="n">
-        <v>152400</v>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M416" t="n">
-        <v>1.085551181102362</v>
-      </c>
+      <c r="M416" t="inlineStr"/>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">

--- a/BackTest/2019-10-27 BackTest BSV.xlsx
+++ b/BackTest/2019-10-27 BackTest BSV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -3091,7 +3091,7 @@
         <v>252.3597418899998</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>252.3597418899998</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>186.2305418899998</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>183.5923418899998</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>124.6072418899998</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -8140,17 +8140,11 @@
         <v>-1080.55800007</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
-      </c>
-      <c r="I235" t="n">
-        <v>152700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8179,17 +8173,11 @@
         <v>-1087.18620007</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
-      </c>
-      <c r="I236" t="n">
-        <v>152500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8218,17 +8206,11 @@
         <v>-1165.73260007</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
-      </c>
-      <c r="I237" t="n">
-        <v>152400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8257,17 +8239,11 @@
         <v>-1192.14210007</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
-      </c>
-      <c r="I238" t="n">
-        <v>151500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8296,17 +8272,11 @@
         <v>-1191.85210007</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
-      </c>
-      <c r="I239" t="n">
-        <v>151400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8335,17 +8305,11 @@
         <v>-1192.14210007</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
-      </c>
-      <c r="I240" t="n">
-        <v>152300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8374,17 +8338,11 @@
         <v>-1216.74710007</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
-      </c>
-      <c r="I241" t="n">
-        <v>151600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8413,17 +8371,11 @@
         <v>-1215.18840007</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
-      </c>
-      <c r="I242" t="n">
-        <v>151400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8452,17 +8404,11 @@
         <v>-1256.17300007</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
-      </c>
-      <c r="I243" t="n">
-        <v>152100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8491,17 +8437,11 @@
         <v>-1215.23060007</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
-      </c>
-      <c r="I244" t="n">
-        <v>151400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8530,17 +8470,11 @@
         <v>-1380.49000007</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
-      </c>
-      <c r="I245" t="n">
-        <v>151600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8569,17 +8503,11 @@
         <v>-1589.00630007</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
-      </c>
-      <c r="I246" t="n">
-        <v>150200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8608,17 +8536,11 @@
         <v>-1110.94940007</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
-      </c>
-      <c r="I247" t="n">
-        <v>150100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8647,17 +8569,11 @@
         <v>-1260.40660007</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
-      </c>
-      <c r="I248" t="n">
-        <v>150900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8686,17 +8602,15 @@
         <v>-1260.40660007</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I249" t="n">
         <v>150700</v>
       </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="n">
+        <v>150700</v>
+      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8725,15 +8639,17 @@
         <v>-1254.74570007</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I250" t="n">
         <v>150700</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>150700</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L250" t="n">
@@ -8764,12 +8680,14 @@
         <v>-1080.06730007</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I251" t="n">
         <v>151300</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>150700</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8803,12 +8721,14 @@
         <v>-1182.25550007</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I252" t="n">
         <v>154700</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>150700</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8842,12 +8762,12 @@
         <v>-1062.72860007</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
-      </c>
-      <c r="I253" t="n">
-        <v>153600</v>
-      </c>
-      <c r="J253" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>150700</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8881,12 +8801,12 @@
         <v>-1319.27560007</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
-      </c>
-      <c r="I254" t="n">
-        <v>154200</v>
-      </c>
-      <c r="J254" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>150700</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8923,7 +8843,9 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>150700</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8957,12 +8879,12 @@
         <v>-1298.79200007</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
-      </c>
-      <c r="I256" t="n">
-        <v>154400</v>
-      </c>
-      <c r="J256" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>150700</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8996,12 +8918,12 @@
         <v>-1299.80660007</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
-      </c>
-      <c r="I257" t="n">
-        <v>154300</v>
-      </c>
-      <c r="J257" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>150700</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9035,12 +8957,12 @@
         <v>-1306.17080007</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
-      </c>
-      <c r="I258" t="n">
-        <v>153600</v>
-      </c>
-      <c r="J258" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>150700</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9074,12 +8996,12 @@
         <v>-1281.05950007</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
-      </c>
-      <c r="I259" t="n">
-        <v>153200</v>
-      </c>
-      <c r="J259" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>150700</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9113,12 +9035,12 @@
         <v>-1299.06970007</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
-      </c>
-      <c r="I260" t="n">
-        <v>154000</v>
-      </c>
-      <c r="J260" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>150700</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9152,12 +9074,12 @@
         <v>-1299.06970007</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
-      </c>
-      <c r="I261" t="n">
-        <v>153500</v>
-      </c>
-      <c r="J261" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>150700</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9191,12 +9113,12 @@
         <v>-1246.82540007</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
-      </c>
-      <c r="I262" t="n">
-        <v>153500</v>
-      </c>
-      <c r="J262" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>150700</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9233,7 +9155,9 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>150700</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9267,12 +9191,12 @@
         <v>-1282.53340007</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
-      </c>
-      <c r="I264" t="n">
-        <v>154000</v>
-      </c>
-      <c r="J264" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>150700</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9309,7 +9233,9 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>150700</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9346,7 +9272,9 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>150700</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9383,7 +9311,9 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>150700</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9420,7 +9350,9 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>150700</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9457,7 +9389,9 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>150700</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9494,7 +9428,9 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>150700</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9531,7 +9467,9 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>150700</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9568,7 +9506,9 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>150700</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9605,7 +9545,9 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>150700</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9642,7 +9584,9 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>150700</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9679,7 +9623,9 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>150700</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9716,7 +9662,9 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>150700</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9753,7 +9701,9 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>150700</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9790,7 +9740,9 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>150700</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9827,7 +9779,9 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>150700</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9864,7 +9818,9 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>150700</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9901,7 +9857,9 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>150700</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9935,10 +9893,14 @@
         <v>-1355.11610007</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>153000</v>
+      </c>
+      <c r="J282" t="n">
+        <v>150700</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9972,10 +9934,14 @@
         <v>-1388.21610007</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>154400</v>
+      </c>
+      <c r="J283" t="n">
+        <v>150700</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10009,10 +9975,14 @@
         <v>-1376.20540007</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>153300</v>
+      </c>
+      <c r="J284" t="n">
+        <v>150700</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10049,7 +10019,9 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>150700</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10083,10 +10055,14 @@
         <v>-1376.58630007</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>154300</v>
+      </c>
+      <c r="J286" t="n">
+        <v>150700</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10120,12 +10096,14 @@
         <v>-1364.60780007</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I287" t="n">
         <v>154000</v>
       </c>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>150700</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10159,10 +10137,14 @@
         <v>-1364.10790007</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>154600</v>
+      </c>
+      <c r="J288" t="n">
+        <v>150700</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10199,7 +10181,9 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>150700</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10233,10 +10217,14 @@
         <v>-1391.71400007</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>154800</v>
+      </c>
+      <c r="J290" t="n">
+        <v>150700</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10273,7 +10261,9 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>150700</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10307,10 +10297,14 @@
         <v>-1391.71400007</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>155200</v>
+      </c>
+      <c r="J292" t="n">
+        <v>150700</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10347,7 +10341,9 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>150700</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10384,7 +10380,9 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>150700</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10421,7 +10419,9 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>150700</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10458,7 +10458,9 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>150700</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10495,7 +10497,9 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>150700</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10532,7 +10536,9 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>150700</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10569,7 +10575,9 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>150700</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10606,7 +10614,9 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>150700</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10643,7 +10653,9 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>150700</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10680,7 +10692,9 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>150700</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10717,7 +10731,9 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>150700</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10754,7 +10770,9 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>150700</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10791,7 +10809,9 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>150700</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10828,7 +10848,9 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>150700</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10865,7 +10887,9 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>150700</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10902,7 +10926,9 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>150700</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10939,7 +10965,9 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>150700</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10976,7 +11004,9 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>150700</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11013,7 +11043,9 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>150700</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11050,7 +11082,9 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>150700</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11087,7 +11121,9 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>150700</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11124,7 +11160,9 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>150700</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11161,7 +11199,9 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>150700</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11198,7 +11238,9 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>150700</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11235,7 +11277,9 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>150700</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11272,7 +11316,9 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>150700</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11309,7 +11355,9 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>150700</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11346,7 +11394,9 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>150700</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11383,7 +11433,9 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>150700</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11420,7 +11472,9 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>150700</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11457,7 +11511,9 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>150700</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11494,7 +11550,9 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>150700</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11531,7 +11589,9 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>150700</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11568,7 +11628,9 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>150700</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11605,7 +11667,9 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>150700</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11642,7 +11706,9 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>150700</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11679,7 +11745,9 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>150700</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11716,7 +11784,9 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>150700</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11753,7 +11823,9 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>150700</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11790,7 +11862,9 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>150700</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11827,7 +11901,9 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>150700</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11864,7 +11940,9 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>150700</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11901,7 +11979,9 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>150700</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11935,12 +12015,12 @@
         <v>-1135.23585088</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
-      </c>
-      <c r="I336" t="n">
-        <v>158000</v>
-      </c>
-      <c r="J336" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>150700</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11974,12 +12054,12 @@
         <v>-1135.43585088</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
-      </c>
-      <c r="I337" t="n">
-        <v>157300</v>
-      </c>
-      <c r="J337" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>150700</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12013,12 +12093,12 @@
         <v>-1134.09025088</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
-      </c>
-      <c r="I338" t="n">
-        <v>157200</v>
-      </c>
-      <c r="J338" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>150700</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12055,7 +12135,9 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>150700</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12089,12 +12171,12 @@
         <v>-1164.81975088</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
-      </c>
-      <c r="I340" t="n">
-        <v>156700</v>
-      </c>
-      <c r="J340" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>150700</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12131,7 +12213,9 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>150700</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12168,7 +12252,9 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>150700</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12205,7 +12291,9 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>150700</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12242,7 +12330,9 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>150700</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12279,7 +12369,9 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>150700</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12316,7 +12408,9 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>150700</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12353,7 +12447,9 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>150700</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12390,7 +12486,9 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>150700</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12427,7 +12525,9 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>150700</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12464,7 +12564,9 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>150700</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12501,7 +12603,9 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>150700</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12538,7 +12642,9 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>150700</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12575,7 +12681,9 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>150700</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12612,7 +12720,9 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>150700</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12649,7 +12759,9 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>150700</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12686,7 +12798,9 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>150700</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12723,7 +12837,9 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>150700</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12760,7 +12876,9 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>150700</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12797,7 +12915,9 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>150700</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12834,7 +12954,9 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>150700</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12871,7 +12993,9 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>150700</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12908,7 +13032,9 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>150700</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12945,7 +13071,9 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>150700</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12982,7 +13110,9 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>150700</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13019,7 +13149,9 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>150700</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13056,7 +13188,9 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>150700</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13093,7 +13227,9 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>150700</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13130,7 +13266,9 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>150700</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13167,7 +13305,9 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>150700</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13204,7 +13344,9 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>150700</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13241,7 +13383,9 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>150700</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13278,7 +13422,9 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>150700</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13315,7 +13461,9 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>150700</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13352,7 +13500,9 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>150700</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13389,7 +13539,9 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>150700</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13426,7 +13578,9 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>150700</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13463,7 +13617,9 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>150700</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13500,7 +13656,9 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>150700</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13537,7 +13695,9 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>150700</v>
+      </c>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13574,7 +13734,9 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>150700</v>
+      </c>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13611,7 +13773,9 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>150700</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13648,7 +13812,9 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>150700</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13685,7 +13851,9 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>150700</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13722,7 +13890,9 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>150700</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13759,7 +13929,9 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>150700</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13796,7 +13968,9 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>150700</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13833,7 +14007,9 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>150700</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13870,7 +14046,9 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>150700</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13907,7 +14085,9 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>150700</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13944,7 +14124,9 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>150700</v>
+      </c>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13981,7 +14163,9 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>150700</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14018,7 +14202,9 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>150700</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14055,7 +14241,9 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>150700</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14092,7 +14280,9 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>150700</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14129,7 +14319,9 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>150700</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14166,7 +14358,9 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>150700</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14203,7 +14397,9 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>150700</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14240,7 +14436,9 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>150700</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14277,7 +14475,9 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>150700</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14314,7 +14514,9 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>150700</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14351,7 +14553,9 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>150700</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14388,7 +14592,9 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>150700</v>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14425,7 +14631,9 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>150700</v>
+      </c>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14462,7 +14670,9 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>150700</v>
+      </c>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14499,7 +14709,9 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>150700</v>
+      </c>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14536,7 +14748,9 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>150700</v>
+      </c>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14573,7 +14787,9 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>150700</v>
+      </c>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14610,7 +14826,9 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>150700</v>
+      </c>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14647,7 +14865,9 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>150700</v>
+      </c>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14684,7 +14904,9 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>150700</v>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14721,7 +14943,9 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>150700</v>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14758,7 +14982,9 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>150700</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14795,7 +15021,9 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>150700</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14832,7 +15060,9 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>150700</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14869,7 +15099,9 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>150700</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14906,7 +15138,9 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>150700</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14943,7 +15177,9 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>150700</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14980,7 +15216,9 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>150700</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15017,7 +15255,9 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>150700</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15054,7 +15294,9 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>150700</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15091,7 +15333,9 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>150700</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15128,7 +15372,9 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>150700</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15165,7 +15411,9 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>150700</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15202,7 +15450,9 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>150700</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15239,7 +15489,9 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>150700</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15276,7 +15528,9 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>150700</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15313,7 +15567,9 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>150700</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15350,7 +15606,9 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>150700</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15387,7 +15645,9 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>150700</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15424,7 +15684,9 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>150700</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15461,7 +15723,9 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>150700</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15498,7 +15762,9 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>150700</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15535,7 +15801,9 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>150700</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15572,7 +15840,9 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>150700</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15609,7 +15879,9 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>150700</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15646,7 +15918,9 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>150700</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15683,7 +15957,9 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>150700</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15720,7 +15996,9 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>150700</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15757,7 +16035,9 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>150700</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15794,7 +16074,9 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>150700</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15831,7 +16113,9 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>150700</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15868,7 +16152,9 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>150700</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15905,7 +16191,9 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>150700</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15942,7 +16230,9 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>150700</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15979,7 +16269,9 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>150700</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16016,7 +16308,9 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>150700</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16053,7 +16347,9 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>150700</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16090,7 +16386,9 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>150700</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16127,7 +16425,9 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>150700</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16161,16 +16461,20 @@
         <v>-660.0734611300003</v>
       </c>
       <c r="H450" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>150700</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L450" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L450" t="n">
+        <v>1</v>
+      </c>
       <c r="M450" t="inlineStr"/>
     </row>
     <row r="451">
@@ -16196,11 +16500,17 @@
         <v>-674.9035611300003</v>
       </c>
       <c r="H451" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>150700</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16229,11 +16539,17 @@
         <v>-661.0595611300002</v>
       </c>
       <c r="H452" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>150700</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16262,11 +16578,17 @@
         <v>-661.0595611300002</v>
       </c>
       <c r="H453" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>150700</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16295,11 +16617,17 @@
         <v>-501.0393611300003</v>
       </c>
       <c r="H454" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>150700</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16328,11 +16656,17 @@
         <v>-606.1683611300002</v>
       </c>
       <c r="H455" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>150700</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16361,11 +16695,17 @@
         <v>-640.5393611300002</v>
       </c>
       <c r="H456" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>150700</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16394,11 +16734,17 @@
         <v>-638.2809611300002</v>
       </c>
       <c r="H457" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>150700</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16427,11 +16773,17 @@
         <v>-559.8707611300001</v>
       </c>
       <c r="H458" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>150700</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16460,11 +16812,17 @@
         <v>-607.6405611300002</v>
       </c>
       <c r="H459" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>150700</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16493,11 +16851,17 @@
         <v>-597.0730611300002</v>
       </c>
       <c r="H460" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>150700</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16526,11 +16890,17 @@
         <v>-597.0730611300002</v>
       </c>
       <c r="H461" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>150700</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16559,11 +16929,17 @@
         <v>-594.4057611300002</v>
       </c>
       <c r="H462" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>150700</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16595,8 +16971,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>150700</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16625,11 +17007,17 @@
         <v>-602.3228611300002</v>
       </c>
       <c r="H464" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>150700</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16658,11 +17046,17 @@
         <v>-603.7022611300002</v>
       </c>
       <c r="H465" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>150700</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16691,11 +17085,17 @@
         <v>-592.1030611300002</v>
       </c>
       <c r="H466" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>150700</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16724,11 +17124,17 @@
         <v>-470.7657611300002</v>
       </c>
       <c r="H467" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>150700</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16757,11 +17163,17 @@
         <v>-470.7657611300002</v>
       </c>
       <c r="H468" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>150700</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16790,11 +17202,17 @@
         <v>-432.5934627400002</v>
       </c>
       <c r="H469" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>150700</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16823,11 +17241,17 @@
         <v>-278.6012901100003</v>
       </c>
       <c r="H470" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>150700</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16856,11 +17280,17 @@
         <v>-195.4184920200003</v>
       </c>
       <c r="H471" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>150700</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16889,11 +17319,17 @@
         <v>163.4413098899997</v>
       </c>
       <c r="H472" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>150700</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16922,11 +17358,17 @@
         <v>474.1258175799997</v>
       </c>
       <c r="H473" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>150700</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16955,11 +17397,17 @@
         <v>-326.7023621100003</v>
       </c>
       <c r="H474" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>150700</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16988,11 +17436,17 @@
         <v>-200.1828621100003</v>
       </c>
       <c r="H475" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>150700</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17021,11 +17475,17 @@
         <v>-52.98516373000027</v>
       </c>
       <c r="H476" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>150700</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17054,11 +17514,17 @@
         <v>-251.6254637300003</v>
       </c>
       <c r="H477" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>150700</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17087,11 +17553,17 @@
         <v>-350.9041637300003</v>
       </c>
       <c r="H478" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>150700</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17120,11 +17592,17 @@
         <v>-435.4223637300003</v>
       </c>
       <c r="H479" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>150700</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17153,11 +17631,17 @@
         <v>-493.5756676100003</v>
       </c>
       <c r="H480" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>150700</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17189,8 +17673,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>150700</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17222,8 +17712,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>150700</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17255,8 +17751,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>150700</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17288,8 +17790,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>150700</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17321,8 +17829,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>150700</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17354,8 +17868,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>150700</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17387,8 +17907,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>150700</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17420,8 +17946,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>150700</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17453,8 +17985,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>150700</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17486,8 +18024,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>150700</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17516,15 +18060,23 @@
         <v>-535.6153808400001</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>150700</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L491" t="n">
-        <v>1</v>
-      </c>
-      <c r="M491" t="inlineStr"/>
+        <v>1.103161911081619</v>
+      </c>
+      <c r="M491" t="n">
+        <v>1.084677419354839</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
@@ -17549,7 +18101,7 @@
         <v>-535.6153808400001</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17582,7 +18134,7 @@
         <v>-606.5749808400001</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17615,7 +18167,7 @@
         <v>-597.8538659200001</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17648,7 +18200,7 @@
         <v>-493.0191002500001</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17681,7 +18233,7 @@
         <v>-416.5985002500001</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17714,7 +18266,7 @@
         <v>-465.9299002500001</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -17747,7 +18299,7 @@
         <v>-520.02380025</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17780,7 +18332,7 @@
         <v>-520.02380025</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -17813,7 +18365,7 @@
         <v>-520.02380025</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -17846,7 +18398,7 @@
         <v>-522.5426002500001</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -17879,7 +18431,7 @@
         <v>-622.0589313700001</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -18110,7 +18662,7 @@
         <v>-871.1957404900002</v>
       </c>
       <c r="H509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -18176,7 +18728,7 @@
         <v>-989.7905404900002</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18209,7 +18761,7 @@
         <v>-989.7905404900002</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18242,7 +18794,7 @@
         <v>-1104.60544049</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18275,7 +18827,7 @@
         <v>-1104.60544049</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18308,7 +18860,7 @@
         <v>-1123.74964049</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18341,7 +18893,7 @@
         <v>-1088.86694049</v>
       </c>
       <c r="H516" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18374,7 +18926,7 @@
         <v>-1210.91674049</v>
       </c>
       <c r="H517" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18407,7 +18959,7 @@
         <v>-1253.47094049</v>
       </c>
       <c r="H518" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18440,7 +18992,7 @@
         <v>-1415.92464049</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18473,7 +19025,7 @@
         <v>-1356.04784049</v>
       </c>
       <c r="H520" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18506,7 +19058,7 @@
         <v>-1192.04204049</v>
       </c>
       <c r="H521" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18539,7 +19091,7 @@
         <v>-1192.04204049</v>
       </c>
       <c r="H522" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18572,7 +19124,7 @@
         <v>-1252.56674049</v>
       </c>
       <c r="H523" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18605,7 +19157,7 @@
         <v>-1252.56674049</v>
       </c>
       <c r="H524" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18638,7 +19190,7 @@
         <v>-1315.59108752</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18671,7 +19223,7 @@
         <v>-1329.37688752</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18704,7 +19256,7 @@
         <v>-1367.91198752</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18737,7 +19289,7 @@
         <v>-1357.52448752</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18770,7 +19322,7 @@
         <v>-1339.77648752</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18803,7 +19355,7 @@
         <v>-1290.77218752</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18836,7 +19388,7 @@
         <v>-1290.77218752</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18869,7 +19421,7 @@
         <v>-1290.51268752</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18902,7 +19454,7 @@
         <v>-1356.27678752</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18935,7 +19487,7 @@
         <v>-1400.21528752</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18968,7 +19520,7 @@
         <v>-1445.80518752</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19001,7 +19553,7 @@
         <v>-1433.77718752</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19034,7 +19586,7 @@
         <v>-1433.77718752</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19067,7 +19619,7 @@
         <v>-1433.77718752</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -24974,11 +25526,17 @@
         <v>-2590.95088969</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
-      </c>
-      <c r="I717" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I717" t="n">
+        <v>156600</v>
+      </c>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -25007,11 +25565,17 @@
         <v>-2600.66508969</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
-      </c>
-      <c r="I718" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I718" t="n">
+        <v>156400</v>
+      </c>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -25044,7 +25608,11 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -25073,11 +25641,17 @@
         <v>-2760.80178969</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
-      </c>
-      <c r="I720" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I720" t="n">
+        <v>156100</v>
+      </c>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -25110,7 +25684,11 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -25139,11 +25717,17 @@
         <v>-2971.52208969</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
-      </c>
-      <c r="I722" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I722" t="n">
+        <v>155600</v>
+      </c>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -25176,7 +25760,11 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -25209,7 +25797,11 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -25242,7 +25834,11 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -25275,7 +25871,11 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -25308,7 +25908,11 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -25341,7 +25945,11 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -25374,7 +25982,11 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -25407,7 +26019,11 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -25440,7 +26056,11 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -25473,7 +26093,11 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -25506,7 +26130,11 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -25535,11 +26163,17 @@
         <v>-3324.765489689999</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
-      </c>
-      <c r="I734" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I734" t="n">
+        <v>155900</v>
+      </c>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -25572,7 +26206,11 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -25605,7 +26243,11 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -25634,11 +26276,17 @@
         <v>-3330.512489689999</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
-      </c>
-      <c r="I737" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I737" t="n">
+        <v>155300</v>
+      </c>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -25667,11 +26315,17 @@
         <v>-3330.525989689999</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
-      </c>
-      <c r="I738" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I738" t="n">
+        <v>155800</v>
+      </c>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -25700,11 +26354,17 @@
         <v>-3356.086789689999</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
-      </c>
-      <c r="I739" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I739" t="n">
+        <v>155300</v>
+      </c>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -25733,11 +26393,17 @@
         <v>-3351.928189689999</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
-      </c>
-      <c r="I740" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I740" t="n">
+        <v>155000</v>
+      </c>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -25770,7 +26436,11 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -25799,11 +26469,17 @@
         <v>-3347.898589689999</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
-      </c>
-      <c r="I742" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I742" t="n">
+        <v>154900</v>
+      </c>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -25836,7 +26512,11 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -25865,11 +26545,17 @@
         <v>-3321.54858969</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
-      </c>
-      <c r="I744" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I744" t="n">
+        <v>155500</v>
+      </c>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -25902,7 +26588,11 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25931,11 +26621,17 @@
         <v>-3316.740889689999</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
-      </c>
-      <c r="I746" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I746" t="n">
+        <v>155800</v>
+      </c>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25968,7 +26664,11 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25997,11 +26697,17 @@
         <v>-3334.350689689999</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
-      </c>
-      <c r="I748" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I748" t="n">
+        <v>155700</v>
+      </c>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -26030,11 +26736,17 @@
         <v>-3334.36828969</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
-      </c>
-      <c r="I749" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I749" t="n">
+        <v>155300</v>
+      </c>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -26063,11 +26775,17 @@
         <v>-3334.01868969</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
-      </c>
-      <c r="I750" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I750" t="n">
+        <v>155200</v>
+      </c>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -26096,11 +26814,17 @@
         <v>-3326.58122048</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
-      </c>
-      <c r="I751" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I751" t="n">
+        <v>155400</v>
+      </c>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -26129,11 +26853,17 @@
         <v>-3325.69102048</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
-      </c>
-      <c r="I752" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I752" t="n">
+        <v>155500</v>
+      </c>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -26166,7 +26896,11 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -26195,11 +26929,17 @@
         <v>-3237.74342048</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
-      </c>
-      <c r="I754" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I754" t="n">
+        <v>155700</v>
+      </c>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -26232,7 +26972,11 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -26261,11 +27005,17 @@
         <v>-3263.22572048</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
-      </c>
-      <c r="I756" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I756" t="n">
+        <v>155500</v>
+      </c>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -26298,7 +27048,11 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -26331,7 +27085,11 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -26364,7 +27122,11 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -26397,7 +27159,11 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -26430,7 +27196,11 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -26459,11 +27229,17 @@
         <v>-3342.79712048</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
-      </c>
-      <c r="I762" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I762" t="n">
+        <v>155800</v>
+      </c>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -26492,11 +27268,17 @@
         <v>-3342.79712048</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
-      </c>
-      <c r="I763" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I763" t="n">
+        <v>155800</v>
+      </c>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -26525,11 +27307,17 @@
         <v>-3342.79712048</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
-      </c>
-      <c r="I764" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I764" t="n">
+        <v>155800</v>
+      </c>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -26558,11 +27346,17 @@
         <v>-3342.79712048</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
-      </c>
-      <c r="I765" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I765" t="n">
+        <v>155800</v>
+      </c>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -26591,11 +27385,17 @@
         <v>-3329.84052048</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
-      </c>
-      <c r="I766" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I766" t="n">
+        <v>155800</v>
+      </c>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -26624,11 +27424,17 @@
         <v>-3331.96922048</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
-      </c>
-      <c r="I767" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I767" t="n">
+        <v>156000</v>
+      </c>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -26661,7 +27467,11 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -26694,7 +27504,11 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -26727,7 +27541,11 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -26760,7 +27578,11 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -26793,7 +27615,11 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -26826,7 +27652,11 @@
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -26859,7 +27689,11 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -26892,7 +27726,11 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -26925,7 +27763,11 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26958,7 +27800,11 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26991,7 +27837,11 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -27024,7 +27874,11 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -27053,11 +27907,17 @@
         <v>-3212.73192746</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
-      </c>
-      <c r="I780" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I780" t="n">
+        <v>157600</v>
+      </c>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -27086,11 +27946,17 @@
         <v>-3211.71282746</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
-      </c>
-      <c r="I781" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I781" t="n">
+        <v>157600</v>
+      </c>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -27119,11 +27985,17 @@
         <v>-3224.74252746</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
-      </c>
-      <c r="I782" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I782" t="n">
+        <v>157700</v>
+      </c>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -27152,11 +28024,17 @@
         <v>-3224.74252746</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
-      </c>
-      <c r="I783" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I783" t="n">
+        <v>157600</v>
+      </c>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -27185,11 +28063,17 @@
         <v>-3185.41902746</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
-      </c>
-      <c r="I784" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I784" t="n">
+        <v>157600</v>
+      </c>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -27218,11 +28102,17 @@
         <v>-3178.35612746</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
-      </c>
-      <c r="I785" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I785" t="n">
+        <v>157700</v>
+      </c>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -27251,11 +28141,17 @@
         <v>-3178.45682746</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
-      </c>
-      <c r="I786" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I786" t="n">
+        <v>158100</v>
+      </c>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -27284,11 +28180,17 @@
         <v>-3176.74512746</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
-      </c>
-      <c r="I787" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I787" t="n">
+        <v>157900</v>
+      </c>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -27317,11 +28219,17 @@
         <v>-3176.74512746</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
-      </c>
-      <c r="I788" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I788" t="n">
+        <v>158000</v>
+      </c>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -27350,11 +28258,17 @@
         <v>-3116.52172746</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
-      </c>
-      <c r="I789" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I789" t="n">
+        <v>158000</v>
+      </c>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -27383,11 +28297,17 @@
         <v>-3154.94632746</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
-      </c>
-      <c r="I790" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I790" t="n">
+        <v>158300</v>
+      </c>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -27416,11 +28336,17 @@
         <v>-3154.94632746</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
-      </c>
-      <c r="I791" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I791" t="n">
+        <v>158000</v>
+      </c>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -27449,11 +28375,17 @@
         <v>-3194.87352746</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
-      </c>
-      <c r="I792" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I792" t="n">
+        <v>158000</v>
+      </c>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -27482,11 +28414,17 @@
         <v>-3225.78522746</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
-      </c>
-      <c r="I793" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I793" t="n">
+        <v>157600</v>
+      </c>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -27515,11 +28453,17 @@
         <v>-3225.406927460001</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
-      </c>
-      <c r="I794" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I794" t="n">
+        <v>157500</v>
+      </c>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -27548,7 +28492,7 @@
         <v>-3195.735027460001</v>
       </c>
       <c r="H795" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I795" t="n">
         <v>157800</v>
@@ -27556,7 +28500,7 @@
       <c r="J795" t="inlineStr"/>
       <c r="K795" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L795" t="n">
@@ -27587,7 +28531,7 @@
         <v>-3195.743627460001</v>
       </c>
       <c r="H796" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I796" t="n">
         <v>158400</v>
@@ -27626,9 +28570,11 @@
         <v>-3195.737727460001</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
-      </c>
-      <c r="I797" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I797" t="n">
+        <v>158000</v>
+      </c>
       <c r="J797" t="inlineStr"/>
       <c r="K797" t="inlineStr">
         <is>
@@ -27663,9 +28609,11 @@
         <v>-3195.737727460001</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
-      </c>
-      <c r="I798" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I798" t="n">
+        <v>158100</v>
+      </c>
       <c r="J798" t="inlineStr"/>
       <c r="K798" t="inlineStr">
         <is>
@@ -27700,9 +28648,11 @@
         <v>-3195.737727460001</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
-      </c>
-      <c r="I799" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I799" t="n">
+        <v>158100</v>
+      </c>
       <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr">
         <is>
@@ -27737,9 +28687,11 @@
         <v>-3202.910927460001</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
-      </c>
-      <c r="I800" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I800" t="n">
+        <v>158100</v>
+      </c>
       <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr">
         <is>
@@ -27774,9 +28726,11 @@
         <v>-3258.101227460001</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
-      </c>
-      <c r="I801" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I801" t="n">
+        <v>157700</v>
+      </c>
       <c r="J801" t="inlineStr"/>
       <c r="K801" t="inlineStr">
         <is>
@@ -27811,9 +28765,11 @@
         <v>-3258.101227460001</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
-      </c>
-      <c r="I802" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I802" t="n">
+        <v>157500</v>
+      </c>
       <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr">
         <is>
@@ -27848,7 +28804,7 @@
         <v>-3418.317327460001</v>
       </c>
       <c r="H803" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I803" t="n">
         <v>157500</v>
@@ -27887,9 +28843,11 @@
         <v>-3418.248527460001</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
-      </c>
-      <c r="I804" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I804" t="n">
+        <v>156900</v>
+      </c>
       <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr">
         <is>
@@ -27924,9 +28882,11 @@
         <v>-3418.248527460001</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
-      </c>
-      <c r="I805" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I805" t="n">
+        <v>157000</v>
+      </c>
       <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr">
         <is>
@@ -27961,7 +28921,7 @@
         <v>-3410.848127460001</v>
       </c>
       <c r="H806" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I806" t="n">
         <v>157000</v>
@@ -28000,7 +28960,7 @@
         <v>-3410.863927460001</v>
       </c>
       <c r="H807" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I807" t="n">
         <v>157700</v>
@@ -28039,7 +28999,7 @@
         <v>-3410.863927460001</v>
       </c>
       <c r="H808" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I808" t="n">
         <v>156900</v>
@@ -28078,7 +29038,7 @@
         <v>-3410.863927460001</v>
       </c>
       <c r="H809" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I809" t="n">
         <v>156900</v>
@@ -28117,9 +29077,11 @@
         <v>-3410.863927460001</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
-      </c>
-      <c r="I810" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I810" t="n">
+        <v>156900</v>
+      </c>
       <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr">
         <is>
@@ -28154,9 +29116,11 @@
         <v>-3413.850727460002</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
-      </c>
-      <c r="I811" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I811" t="n">
+        <v>156900</v>
+      </c>
       <c r="J811" t="inlineStr"/>
       <c r="K811" t="inlineStr">
         <is>
@@ -28191,9 +29155,11 @@
         <v>-3401.834027460001</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
-      </c>
-      <c r="I812" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I812" t="n">
+        <v>156800</v>
+      </c>
       <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr">
         <is>
@@ -28228,9 +29194,11 @@
         <v>-3395.417927460001</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
-      </c>
-      <c r="I813" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I813" t="n">
+        <v>156900</v>
+      </c>
       <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr">
         <is>
@@ -28265,9 +29233,11 @@
         <v>-3395.422527460002</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
-      </c>
-      <c r="I814" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I814" t="n">
+        <v>157000</v>
+      </c>
       <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr">
         <is>
@@ -28302,9 +29272,11 @@
         <v>-3395.422527460002</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
-      </c>
-      <c r="I815" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I815" t="n">
+        <v>156900</v>
+      </c>
       <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr">
         <is>
@@ -28339,9 +29311,11 @@
         <v>-3397.211227460002</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
-      </c>
-      <c r="I816" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I816" t="n">
+        <v>156900</v>
+      </c>
       <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr">
         <is>
@@ -28376,7 +29350,7 @@
         <v>-3396.871227460002</v>
       </c>
       <c r="H817" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I817" t="n">
         <v>156800</v>
@@ -28415,9 +29389,11 @@
         <v>-3402.316627460002</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
-      </c>
-      <c r="I818" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I818" t="n">
+        <v>157700</v>
+      </c>
       <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr">
         <is>
@@ -28452,9 +29428,11 @@
         <v>-3391.133327460002</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
-      </c>
-      <c r="I819" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I819" t="n">
+        <v>157400</v>
+      </c>
       <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr">
         <is>
@@ -28489,9 +29467,11 @@
         <v>-3345.163827460001</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
-      </c>
-      <c r="I820" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I820" t="n">
+        <v>157800</v>
+      </c>
       <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr">
         <is>
@@ -28526,9 +29506,11 @@
         <v>-3353.377427460001</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
-      </c>
-      <c r="I821" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I821" t="n">
+        <v>158500</v>
+      </c>
       <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr">
         <is>
@@ -28563,9 +29545,11 @@
         <v>-3359.116227460001</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
-      </c>
-      <c r="I822" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I822" t="n">
+        <v>158100</v>
+      </c>
       <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr">
         <is>
@@ -28600,9 +29584,11 @@
         <v>-3343.153327460001</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
-      </c>
-      <c r="I823" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I823" t="n">
+        <v>158000</v>
+      </c>
       <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr">
         <is>
@@ -28637,9 +29623,11 @@
         <v>-3351.485527460001</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
-      </c>
-      <c r="I824" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I824" t="n">
+        <v>158400</v>
+      </c>
       <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr">
         <is>
@@ -28674,9 +29662,11 @@
         <v>-3351.485527460001</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
-      </c>
-      <c r="I825" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I825" t="n">
+        <v>158200</v>
+      </c>
       <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr">
         <is>
@@ -28711,9 +29701,11 @@
         <v>-3345.730427460001</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
-      </c>
-      <c r="I826" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I826" t="n">
+        <v>158200</v>
+      </c>
       <c r="J826" t="inlineStr"/>
       <c r="K826" t="inlineStr">
         <is>
@@ -28748,9 +29740,11 @@
         <v>-3349.400027460002</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
-      </c>
-      <c r="I827" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I827" t="n">
+        <v>158500</v>
+      </c>
       <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr">
         <is>
@@ -28785,9 +29779,11 @@
         <v>-3349.400027460002</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
-      </c>
-      <c r="I828" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I828" t="n">
+        <v>158100</v>
+      </c>
       <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr">
         <is>
@@ -28822,9 +29818,11 @@
         <v>-3318.950027460002</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
-      </c>
-      <c r="I829" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I829" t="n">
+        <v>158100</v>
+      </c>
       <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr">
         <is>
@@ -28859,9 +29857,11 @@
         <v>-3020.849727460002</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
-      </c>
-      <c r="I830" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I830" t="n">
+        <v>158500</v>
+      </c>
       <c r="J830" t="inlineStr"/>
       <c r="K830" t="inlineStr">
         <is>
@@ -28896,9 +29896,11 @@
         <v>-2966.952327460002</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
-      </c>
-      <c r="I831" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I831" t="n">
+        <v>158800</v>
+      </c>
       <c r="J831" t="inlineStr"/>
       <c r="K831" t="inlineStr">
         <is>
@@ -28933,9 +29935,11 @@
         <v>-2928.581027460002</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
-      </c>
-      <c r="I832" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I832" t="n">
+        <v>158900</v>
+      </c>
       <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr">
         <is>
@@ -28970,9 +29974,11 @@
         <v>-2852.864727460002</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
-      </c>
-      <c r="I833" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I833" t="n">
+        <v>159300</v>
+      </c>
       <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr">
         <is>
@@ -29007,9 +30013,11 @@
         <v>-2747.408827460002</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
-      </c>
-      <c r="I834" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I834" t="n">
+        <v>159400</v>
+      </c>
       <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr">
         <is>
@@ -29192,9 +30200,11 @@
         <v>-2380.979627460002</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
-      </c>
-      <c r="I839" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I839" t="n">
+        <v>160200</v>
+      </c>
       <c r="J839" t="inlineStr"/>
       <c r="K839" t="inlineStr">
         <is>
@@ -29266,9 +30276,11 @@
         <v>-2253.099527460002</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
-      </c>
-      <c r="I841" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I841" t="n">
+        <v>160600</v>
+      </c>
       <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr">
         <is>
@@ -29488,9 +30500,11 @@
         <v>-2386.049727460002</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
-      </c>
-      <c r="I847" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I847" t="n">
+        <v>160100</v>
+      </c>
       <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr">
         <is>
@@ -29784,9 +30798,11 @@
         <v>-2548.830227460002</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
-      </c>
-      <c r="I855" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I855" t="n">
+        <v>159500</v>
+      </c>
       <c r="J855" t="inlineStr"/>
       <c r="K855" t="inlineStr">
         <is>
@@ -29821,9 +30837,11 @@
         <v>-2557.069027460002</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
-      </c>
-      <c r="I856" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I856" t="n">
+        <v>159000</v>
+      </c>
       <c r="J856" t="inlineStr"/>
       <c r="K856" t="inlineStr">
         <is>
@@ -29858,9 +30876,11 @@
         <v>-2534.166227460003</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
-      </c>
-      <c r="I857" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I857" t="n">
+        <v>158900</v>
+      </c>
       <c r="J857" t="inlineStr"/>
       <c r="K857" t="inlineStr">
         <is>
@@ -29895,9 +30915,11 @@
         <v>-2483.807727460003</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
-      </c>
-      <c r="I858" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I858" t="n">
+        <v>159000</v>
+      </c>
       <c r="J858" t="inlineStr"/>
       <c r="K858" t="inlineStr">
         <is>
@@ -29932,9 +30954,11 @@
         <v>-2483.807727460003</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
-      </c>
-      <c r="I859" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I859" t="n">
+        <v>159300</v>
+      </c>
       <c r="J859" t="inlineStr"/>
       <c r="K859" t="inlineStr">
         <is>
@@ -29969,9 +30993,11 @@
         <v>-2483.927727460003</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
-      </c>
-      <c r="I860" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I860" t="n">
+        <v>159300</v>
+      </c>
       <c r="J860" t="inlineStr"/>
       <c r="K860" t="inlineStr">
         <is>
@@ -30006,9 +31032,11 @@
         <v>-2513.143427460003</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
-      </c>
-      <c r="I861" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I861" t="n">
+        <v>159000</v>
+      </c>
       <c r="J861" t="inlineStr"/>
       <c r="K861" t="inlineStr">
         <is>
@@ -30043,9 +31071,11 @@
         <v>-2511.793427460003</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
-      </c>
-      <c r="I862" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I862" t="n">
+        <v>158800</v>
+      </c>
       <c r="J862" t="inlineStr"/>
       <c r="K862" t="inlineStr">
         <is>
@@ -30080,9 +31110,11 @@
         <v>-2511.793427460003</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
-      </c>
-      <c r="I863" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I863" t="n">
+        <v>159400</v>
+      </c>
       <c r="J863" t="inlineStr"/>
       <c r="K863" t="inlineStr">
         <is>
@@ -30117,9 +31149,11 @@
         <v>-2511.793427460003</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
-      </c>
-      <c r="I864" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I864" t="n">
+        <v>159400</v>
+      </c>
       <c r="J864" t="inlineStr"/>
       <c r="K864" t="inlineStr">
         <is>
@@ -30154,9 +31188,11 @@
         <v>-2511.724127460003</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
-      </c>
-      <c r="I865" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I865" t="n">
+        <v>159400</v>
+      </c>
       <c r="J865" t="inlineStr"/>
       <c r="K865" t="inlineStr">
         <is>
@@ -30191,9 +31227,11 @@
         <v>-2511.034127460003</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
-      </c>
-      <c r="I866" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I866" t="n">
+        <v>159500</v>
+      </c>
       <c r="J866" t="inlineStr"/>
       <c r="K866" t="inlineStr">
         <is>
@@ -30228,9 +31266,11 @@
         <v>-2548.234127460003</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
-      </c>
-      <c r="I867" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I867" t="n">
+        <v>159600</v>
+      </c>
       <c r="J867" t="inlineStr"/>
       <c r="K867" t="inlineStr">
         <is>
@@ -30265,9 +31305,11 @@
         <v>-2547.004327460003</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
-      </c>
-      <c r="I868" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I868" t="n">
+        <v>159400</v>
+      </c>
       <c r="J868" t="inlineStr"/>
       <c r="K868" t="inlineStr">
         <is>
@@ -30302,9 +31344,11 @@
         <v>-2562.658727460002</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
-      </c>
-      <c r="I869" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I869" t="n">
+        <v>159800</v>
+      </c>
       <c r="J869" t="inlineStr"/>
       <c r="K869" t="inlineStr">
         <is>
@@ -30339,9 +31383,11 @@
         <v>-2562.658727460002</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
-      </c>
-      <c r="I870" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I870" t="n">
+        <v>159500</v>
+      </c>
       <c r="J870" t="inlineStr"/>
       <c r="K870" t="inlineStr">
         <is>
@@ -30376,9 +31422,11 @@
         <v>-2562.668027460003</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
-      </c>
-      <c r="I871" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I871" t="n">
+        <v>159500</v>
+      </c>
       <c r="J871" t="inlineStr"/>
       <c r="K871" t="inlineStr">
         <is>
@@ -30413,9 +31461,11 @@
         <v>-2638.404027460002</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
-      </c>
-      <c r="I872" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I872" t="n">
+        <v>159400</v>
+      </c>
       <c r="J872" t="inlineStr"/>
       <c r="K872" t="inlineStr">
         <is>
@@ -30450,9 +31500,11 @@
         <v>-2638.404027460002</v>
       </c>
       <c r="H873" t="n">
-        <v>0</v>
-      </c>
-      <c r="I873" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I873" t="n">
+        <v>159200</v>
+      </c>
       <c r="J873" t="inlineStr"/>
       <c r="K873" t="inlineStr">
         <is>
@@ -30487,9 +31539,11 @@
         <v>-2638.404027460002</v>
       </c>
       <c r="H874" t="n">
-        <v>0</v>
-      </c>
-      <c r="I874" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I874" t="n">
+        <v>159200</v>
+      </c>
       <c r="J874" t="inlineStr"/>
       <c r="K874" t="inlineStr">
         <is>
@@ -30524,9 +31578,11 @@
         <v>-2638.404027460002</v>
       </c>
       <c r="H875" t="n">
-        <v>0</v>
-      </c>
-      <c r="I875" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I875" t="n">
+        <v>159200</v>
+      </c>
       <c r="J875" t="inlineStr"/>
       <c r="K875" t="inlineStr">
         <is>
@@ -30561,9 +31617,11 @@
         <v>-2638.044027460002</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
-      </c>
-      <c r="I876" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I876" t="n">
+        <v>159200</v>
+      </c>
       <c r="J876" t="inlineStr"/>
       <c r="K876" t="inlineStr">
         <is>
@@ -30746,9 +31804,11 @@
         <v>-2774.008627460003</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
-      </c>
-      <c r="I881" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I881" t="n">
+        <v>158900</v>
+      </c>
       <c r="J881" t="inlineStr"/>
       <c r="K881" t="inlineStr">
         <is>
@@ -30783,9 +31843,11 @@
         <v>-2807.996927460003</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
-      </c>
-      <c r="I882" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I882" t="n">
+        <v>158200</v>
+      </c>
       <c r="J882" t="inlineStr"/>
       <c r="K882" t="inlineStr">
         <is>
@@ -30820,9 +31882,11 @@
         <v>-2807.996927460003</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
-      </c>
-      <c r="I883" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I883" t="n">
+        <v>158100</v>
+      </c>
       <c r="J883" t="inlineStr"/>
       <c r="K883" t="inlineStr">
         <is>
@@ -30857,9 +31921,11 @@
         <v>-2690.936237870003</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
-      </c>
-      <c r="I884" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I884" t="n">
+        <v>158100</v>
+      </c>
       <c r="J884" t="inlineStr"/>
       <c r="K884" t="inlineStr">
         <is>
@@ -30894,9 +31960,11 @@
         <v>-2690.936237870003</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
-      </c>
-      <c r="I885" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I885" t="n">
+        <v>158600</v>
+      </c>
       <c r="J885" t="inlineStr"/>
       <c r="K885" t="inlineStr">
         <is>
@@ -30931,9 +31999,11 @@
         <v>-2690.947537870003</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
-      </c>
-      <c r="I886" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I886" t="n">
+        <v>158600</v>
+      </c>
       <c r="J886" t="inlineStr"/>
       <c r="K886" t="inlineStr">
         <is>
@@ -30968,9 +32038,11 @@
         <v>-2678.935637870003</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
-      </c>
-      <c r="I887" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I887" t="n">
+        <v>158400</v>
+      </c>
       <c r="J887" t="inlineStr"/>
       <c r="K887" t="inlineStr">
         <is>
@@ -31005,9 +32077,11 @@
         <v>-2679.025137870003</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
-      </c>
-      <c r="I888" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I888" t="n">
+        <v>158700</v>
+      </c>
       <c r="J888" t="inlineStr"/>
       <c r="K888" t="inlineStr">
         <is>
@@ -31042,9 +32116,11 @@
         <v>-2668.513837870003</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
-      </c>
-      <c r="I889" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I889" t="n">
+        <v>158100</v>
+      </c>
       <c r="J889" t="inlineStr"/>
       <c r="K889" t="inlineStr">
         <is>
@@ -31079,9 +32155,11 @@
         <v>-2733.381137870002</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
-      </c>
-      <c r="I890" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I890" t="n">
+        <v>158400</v>
+      </c>
       <c r="J890" t="inlineStr"/>
       <c r="K890" t="inlineStr">
         <is>
@@ -31116,9 +32194,11 @@
         <v>-2722.164937870003</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
-      </c>
-      <c r="I891" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I891" t="n">
+        <v>158300</v>
+      </c>
       <c r="J891" t="inlineStr"/>
       <c r="K891" t="inlineStr">
         <is>
@@ -31153,9 +32233,11 @@
         <v>-2698.956737870003</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
-      </c>
-      <c r="I892" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I892" t="n">
+        <v>158400</v>
+      </c>
       <c r="J892" t="inlineStr"/>
       <c r="K892" t="inlineStr">
         <is>
@@ -31264,9 +32346,11 @@
         <v>-2761.880437870002</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
-      </c>
-      <c r="I895" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I895" t="n">
+        <v>158600</v>
+      </c>
       <c r="J895" t="inlineStr"/>
       <c r="K895" t="inlineStr">
         <is>
@@ -31338,9 +32422,11 @@
         <v>-2750.430337870002</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
-      </c>
-      <c r="I897" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I897" t="n">
+        <v>158600</v>
+      </c>
       <c r="J897" t="inlineStr"/>
       <c r="K897" t="inlineStr">
         <is>
@@ -31375,9 +32461,11 @@
         <v>-2750.430337870002</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
-      </c>
-      <c r="I898" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I898" t="n">
+        <v>158700</v>
+      </c>
       <c r="J898" t="inlineStr"/>
       <c r="K898" t="inlineStr">
         <is>
@@ -31412,9 +32500,11 @@
         <v>-2878.726037870003</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
-      </c>
-      <c r="I899" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I899" t="n">
+        <v>158700</v>
+      </c>
       <c r="J899" t="inlineStr"/>
       <c r="K899" t="inlineStr">
         <is>
@@ -31449,9 +32539,11 @@
         <v>-2878.726037870003</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
-      </c>
-      <c r="I900" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I900" t="n">
+        <v>158300</v>
+      </c>
       <c r="J900" t="inlineStr"/>
       <c r="K900" t="inlineStr">
         <is>
@@ -31486,9 +32578,11 @@
         <v>-2710.104266090003</v>
       </c>
       <c r="H901" t="n">
-        <v>0</v>
-      </c>
-      <c r="I901" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I901" t="n">
+        <v>158300</v>
+      </c>
       <c r="J901" t="inlineStr"/>
       <c r="K901" t="inlineStr">
         <is>
@@ -31523,9 +32617,11 @@
         <v>-2710.774089540002</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
-      </c>
-      <c r="I902" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I902" t="n">
+        <v>158800</v>
+      </c>
       <c r="J902" t="inlineStr"/>
       <c r="K902" t="inlineStr">
         <is>
@@ -31560,9 +32656,11 @@
         <v>-2710.774089540002</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
-      </c>
-      <c r="I903" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I903" t="n">
+        <v>158600</v>
+      </c>
       <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr">
         <is>
@@ -31597,9 +32695,11 @@
         <v>-2708.382589540002</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
-      </c>
-      <c r="I904" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I904" t="n">
+        <v>158600</v>
+      </c>
       <c r="J904" t="inlineStr"/>
       <c r="K904" t="inlineStr">
         <is>
@@ -31634,9 +32734,11 @@
         <v>-2604.057289540002</v>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
-      </c>
-      <c r="I905" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I905" t="n">
+        <v>159000</v>
+      </c>
       <c r="J905" t="inlineStr"/>
       <c r="K905" t="inlineStr">
         <is>
@@ -31708,9 +32810,11 @@
         <v>-2527.712289540003</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
-      </c>
-      <c r="I907" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I907" t="n">
+        <v>160000</v>
+      </c>
       <c r="J907" t="inlineStr"/>
       <c r="K907" t="inlineStr">
         <is>
@@ -37110,18 +38214,16 @@
         <v>-2762.603188130003</v>
       </c>
       <c r="H1053" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
       <c r="K1053" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1053" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L1053" t="inlineStr"/>
       <c r="M1053" t="inlineStr"/>
     </row>
     <row r="1054">
@@ -37147,15 +38249,11 @@
         <v>-2860.132288130003</v>
       </c>
       <c r="H1054" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
-      <c r="K1054" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1054" t="inlineStr"/>
       <c r="L1054" t="n">
         <v>1</v>
       </c>
@@ -37184,15 +38282,11 @@
         <v>-2924.673088130003</v>
       </c>
       <c r="H1055" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
-      <c r="K1055" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1055" t="inlineStr"/>
       <c r="L1055" t="n">
         <v>1</v>
       </c>
@@ -37225,11 +38319,7 @@
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
-      <c r="K1056" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1056" t="inlineStr"/>
       <c r="L1056" t="n">
         <v>1</v>
       </c>
@@ -37258,15 +38348,11 @@
         <v>-2708.775688130003</v>
       </c>
       <c r="H1057" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
-      <c r="K1057" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1057" t="inlineStr"/>
       <c r="L1057" t="n">
         <v>1</v>
       </c>
@@ -37299,11 +38385,7 @@
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
-      <c r="K1058" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1058" t="inlineStr"/>
       <c r="L1058" t="n">
         <v>1</v>
       </c>
@@ -37332,15 +38414,11 @@
         <v>-2915.283141520003</v>
       </c>
       <c r="H1059" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
-      <c r="K1059" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1059" t="inlineStr"/>
       <c r="L1059" t="n">
         <v>1</v>
       </c>
@@ -37369,15 +38447,11 @@
         <v>-3046.848341520003</v>
       </c>
       <c r="H1060" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
-      <c r="K1060" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1060" t="inlineStr"/>
       <c r="L1060" t="n">
         <v>1</v>
       </c>
@@ -37406,15 +38480,11 @@
         <v>-2942.919041520004</v>
       </c>
       <c r="H1061" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
-      <c r="K1061" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1061" t="inlineStr"/>
       <c r="L1061" t="n">
         <v>1</v>
       </c>
@@ -37443,15 +38513,11 @@
         <v>-2942.919041520004</v>
       </c>
       <c r="H1062" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
-      <c r="K1062" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1062" t="inlineStr"/>
       <c r="L1062" t="n">
         <v>1</v>
       </c>
@@ -37480,15 +38546,11 @@
         <v>-3092.066941520004</v>
       </c>
       <c r="H1063" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
-      <c r="K1063" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1063" t="inlineStr"/>
       <c r="L1063" t="n">
         <v>1</v>
       </c>
@@ -37517,15 +38579,11 @@
         <v>-3107.475841520004</v>
       </c>
       <c r="H1064" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
-      <c r="K1064" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1064" t="inlineStr"/>
       <c r="L1064" t="n">
         <v>1</v>
       </c>
@@ -37558,11 +38616,7 @@
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
-      <c r="K1065" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1065" t="inlineStr"/>
       <c r="L1065" t="n">
         <v>1</v>
       </c>
@@ -37591,15 +38645,11 @@
         <v>-3375.863341520004</v>
       </c>
       <c r="H1066" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
-      <c r="K1066" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1066" t="inlineStr"/>
       <c r="L1066" t="n">
         <v>1</v>
       </c>
@@ -37628,15 +38678,11 @@
         <v>-3390.968741520004</v>
       </c>
       <c r="H1067" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
-      <c r="K1067" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1067" t="inlineStr"/>
       <c r="L1067" t="n">
         <v>1</v>
       </c>
@@ -37665,15 +38711,11 @@
         <v>-3456.270453680004</v>
       </c>
       <c r="H1068" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
-      <c r="K1068" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1068" t="inlineStr"/>
       <c r="L1068" t="n">
         <v>1</v>
       </c>
@@ -37702,15 +38744,11 @@
         <v>-3368.809453680004</v>
       </c>
       <c r="H1069" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
-      <c r="K1069" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1069" t="inlineStr"/>
       <c r="L1069" t="n">
         <v>1</v>
       </c>
@@ -37739,15 +38777,11 @@
         <v>-2944.727853680004</v>
       </c>
       <c r="H1070" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
-      <c r="K1070" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1070" t="inlineStr"/>
       <c r="L1070" t="n">
         <v>1</v>
       </c>
@@ -37776,15 +38810,11 @@
         <v>-2737.646865220004</v>
       </c>
       <c r="H1071" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
-      <c r="K1071" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1071" t="inlineStr"/>
       <c r="L1071" t="n">
         <v>1</v>
       </c>
@@ -37813,15 +38843,11 @@
         <v>-2737.646865220004</v>
       </c>
       <c r="H1072" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
-      <c r="K1072" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1072" t="inlineStr"/>
       <c r="L1072" t="n">
         <v>1</v>
       </c>
@@ -37850,15 +38876,11 @@
         <v>-2844.250465220004</v>
       </c>
       <c r="H1073" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
-      <c r="K1073" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1073" t="inlineStr"/>
       <c r="L1073" t="n">
         <v>1</v>
       </c>
@@ -37891,11 +38913,7 @@
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
-      <c r="K1074" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1074" t="inlineStr"/>
       <c r="L1074" t="n">
         <v>1</v>
       </c>
@@ -37928,11 +38946,7 @@
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
-      <c r="K1075" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1075" t="inlineStr"/>
       <c r="L1075" t="n">
         <v>1</v>
       </c>
@@ -37965,11 +38979,7 @@
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
-      <c r="K1076" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1076" t="inlineStr"/>
       <c r="L1076" t="n">
         <v>1</v>
       </c>
@@ -38002,11 +39012,7 @@
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
-      <c r="K1077" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1077" t="inlineStr"/>
       <c r="L1077" t="n">
         <v>1</v>
       </c>
@@ -38039,11 +39045,7 @@
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
-      <c r="K1078" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1078" t="inlineStr"/>
       <c r="L1078" t="n">
         <v>1</v>
       </c>
@@ -38076,11 +39078,7 @@
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
-      <c r="K1079" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1079" t="inlineStr"/>
       <c r="L1079" t="n">
         <v>1</v>
       </c>
@@ -38113,11 +39111,7 @@
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
-      <c r="K1080" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1080" t="inlineStr"/>
       <c r="L1080" t="n">
         <v>1</v>
       </c>
@@ -38150,11 +39144,7 @@
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
-      <c r="K1081" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1081" t="inlineStr"/>
       <c r="L1081" t="n">
         <v>1</v>
       </c>
@@ -38187,11 +39177,7 @@
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
-      <c r="K1082" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1082" t="inlineStr"/>
       <c r="L1082" t="n">
         <v>1</v>
       </c>
@@ -38224,11 +39210,7 @@
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
-      <c r="K1083" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1083" t="inlineStr"/>
       <c r="L1083" t="n">
         <v>1</v>
       </c>
@@ -38261,11 +39243,7 @@
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
-      <c r="K1084" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1084" t="inlineStr"/>
       <c r="L1084" t="n">
         <v>1</v>
       </c>
@@ -38298,11 +39276,7 @@
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
-      <c r="K1085" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1085" t="inlineStr"/>
       <c r="L1085" t="n">
         <v>1</v>
       </c>
@@ -38335,11 +39309,7 @@
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
-      <c r="K1086" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1086" t="inlineStr"/>
       <c r="L1086" t="n">
         <v>1</v>
       </c>
@@ -38372,11 +39342,7 @@
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
-      <c r="K1087" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1087" t="inlineStr"/>
       <c r="L1087" t="n">
         <v>1</v>
       </c>
@@ -38409,11 +39375,7 @@
       </c>
       <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="inlineStr"/>
-      <c r="K1088" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1088" t="inlineStr"/>
       <c r="L1088" t="n">
         <v>1</v>
       </c>
@@ -38446,11 +39408,7 @@
       </c>
       <c r="I1089" t="inlineStr"/>
       <c r="J1089" t="inlineStr"/>
-      <c r="K1089" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1089" t="inlineStr"/>
       <c r="L1089" t="n">
         <v>1</v>
       </c>
@@ -38483,11 +39441,7 @@
       </c>
       <c r="I1090" t="inlineStr"/>
       <c r="J1090" t="inlineStr"/>
-      <c r="K1090" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1090" t="inlineStr"/>
       <c r="L1090" t="n">
         <v>1</v>
       </c>
@@ -38520,11 +39474,7 @@
       </c>
       <c r="I1091" t="inlineStr"/>
       <c r="J1091" t="inlineStr"/>
-      <c r="K1091" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1091" t="inlineStr"/>
       <c r="L1091" t="n">
         <v>1</v>
       </c>
@@ -38557,11 +39507,7 @@
       </c>
       <c r="I1092" t="inlineStr"/>
       <c r="J1092" t="inlineStr"/>
-      <c r="K1092" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1092" t="inlineStr"/>
       <c r="L1092" t="n">
         <v>1</v>
       </c>
@@ -38594,17 +39540,13 @@
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
-      <c r="K1093" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1093" t="inlineStr"/>
       <c r="L1093" t="n">
         <v>1</v>
       </c>
       <c r="M1093" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest BSV.xlsx
+++ b/BackTest/2019-10-27 BackTest BSV.xlsx
@@ -2695,7 +2695,7 @@
         <v>-42.58584066000013</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-50.37354066000014</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>18.97615933999986</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>18.97615933999986</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>21.17065933999986</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>17.39325933999986</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>102.2434593399999</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>112.0182418899999</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>194.8379418899999</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>252.3597418899998</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>252.3597418899998</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>186.2305418899998</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>183.5923418899998</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>124.6072418899998</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>156.1134418899998</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>153.6459418899998</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>153.6459418899998</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>151.5102418899998</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>60.70894188999981</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>63.65434188999981</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>49.7580418899998</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>276.0033418899998</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>276.4406418899998</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>318.5434418899998</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>302.9282418899998</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>317.9719418899998</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>327.6898418899997</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>327.6898418899997</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>327.6898418899997</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>347.0261418899997</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>345.1511418899997</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>281.6314418899997</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>270.6993418899997</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>273.0974418899997</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>273.0974418899997</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>273.0974418899997</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>217.6685418899997</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>219.5212418899997</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>212.2310418899997</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>381.1773418899998</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-1403.71770007</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-1391.71400007</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-1391.71400007</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-1389.71400007</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-1339.09810007</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-1323.37090007</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-1319.44660007</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-1207.89770007</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-1254.29770007</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-1252.93820007</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-1297.26320007</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-1300.397900070001</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-1284.494600070001</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-1308.498100070001</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-1298.362900070001</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-1079.709082440001</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-1096.990482440001</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-1091.822582440001</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-1091.822582440001</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-1091.812882440001</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-1091.812882440001</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-1076.735282440001</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-1066.002482440001</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-1025.661250880001</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-1131.26225088</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-1131.04225088</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-1162.67205088</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-1107.70105088</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-1135.23585088</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-1135.43585088</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-1134.09025088</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-1140.80805088</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-1139.61015088</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-1139.83835088</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-1139.02245088</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-1147.19145088</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-1140.95553894</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-1129.18314629</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-1129.18314629</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-1129.55244629</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-1169.31584629</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-1156.21534629</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-1166.23424629</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-1165.23424629</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-1184.67694629</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-1184.67694629</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-1131.29154629</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-1131.29154629</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-1121.44034629</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-1142.26594629</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-1144.73894629</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-1145.01294629</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-1145.01294629</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-1152.74744629</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-1152.74744629</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-1152.74744629</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-660.0734611300003</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-674.9035611300003</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-661.0595611300002</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-661.0595611300002</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-501.0393611300003</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-606.1683611300002</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-640.5393611300002</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-638.2809611300002</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-559.8707611300001</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-607.6405611300002</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-597.0730611300002</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-597.0730611300002</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-594.4057611300002</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-594.4057611300002</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-602.3228611300002</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-603.7022611300002</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-592.1030611300002</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-470.7657611300002</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-470.7657611300002</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-432.5934627400002</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-278.6012901100003</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-195.4184920200003</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>163.4413098899997</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>474.1258175799997</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-326.7023621100003</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-52.98516373000027</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-350.9041637300003</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>-435.4223637300003</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-493.5756676100003</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-510.1015676100002</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>-584.2347372900002</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-525.8420372900002</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-775.5387451700002</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-737.9940175500002</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-691.3452911200002</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-597.8538659200001</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-493.0191002500001</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-416.5985002500001</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-465.9299002500001</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-520.02380025</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-520.02380025</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-520.02380025</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-522.5426002500001</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-622.0589313700001</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -19789,7 +19789,7 @@
         <v>-1386.156487520001</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
         <v>-1401.439087520001</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -19855,7 +19855,7 @@
         <v>-1401.439087520001</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -19921,7 +19921,7 @@
         <v>-1432.628487520001</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -19954,7 +19954,7 @@
         <v>-1420.328787520001</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -20911,7 +20911,7 @@
         <v>-1323.273752080001</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -20944,7 +20944,7 @@
         <v>-1319.985952080001</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
         <v>-1319.985952080001</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21010,7 +21010,7 @@
         <v>-1319.985952080001</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21043,7 +21043,7 @@
         <v>-1325.985952080001</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21076,7 +21076,7 @@
         <v>-1252.916352080001</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21109,7 +21109,7 @@
         <v>-1252.916352080001</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
         <v>-1251.292552080001</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21208,7 +21208,7 @@
         <v>-1230.756352080001</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21340,7 +21340,7 @@
         <v>-1053.711852080001</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21373,7 +21373,7 @@
         <v>-1203.358452080001</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>-1203.358452080001</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21439,7 +21439,7 @@
         <v>-1266.972089690001</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
         <v>-1266.972089690001</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21505,7 +21505,7 @@
         <v>-1266.972089690001</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21538,7 +21538,7 @@
         <v>-1223.989089690001</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -21571,7 +21571,7 @@
         <v>-1245.562989690001</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -21604,7 +21604,7 @@
         <v>-1245.562989690001</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -21637,7 +21637,7 @@
         <v>-1273.640789690001</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21670,7 +21670,7 @@
         <v>-1268.640789690001</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21703,7 +21703,7 @@
         <v>-1285.568689690001</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21736,7 +21736,7 @@
         <v>-1349.450389690001</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -22000,7 +22000,7 @@
         <v>-1457.518989690001</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22033,7 +22033,7 @@
         <v>-1457.518989690001</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22066,7 +22066,7 @@
         <v>-1517.731289690001</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22099,7 +22099,7 @@
         <v>-1587.558589690001</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22132,7 +22132,7 @@
         <v>-1749.041489690001</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -25135,10 +25135,14 @@
         <v>-3334.01868969</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
-      </c>
-      <c r="I750" t="inlineStr"/>
-      <c r="J750" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I750" t="n">
+        <v>155200</v>
+      </c>
+      <c r="J750" t="n">
+        <v>155200</v>
+      </c>
       <c r="K750" t="inlineStr"/>
       <c r="L750" t="n">
         <v>1</v>
@@ -25168,11 +25172,19 @@
         <v>-3326.58122048</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
-      </c>
-      <c r="I751" t="inlineStr"/>
-      <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I751" t="n">
+        <v>155400</v>
+      </c>
+      <c r="J751" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25201,11 +25213,19 @@
         <v>-3325.69102048</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
-      </c>
-      <c r="I752" t="inlineStr"/>
-      <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I752" t="n">
+        <v>155500</v>
+      </c>
+      <c r="J752" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -25234,11 +25254,19 @@
         <v>-3325.69102048</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
-      </c>
-      <c r="I753" t="inlineStr"/>
-      <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I753" t="n">
+        <v>155700</v>
+      </c>
+      <c r="J753" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25267,11 +25295,19 @@
         <v>-3237.74342048</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
-      </c>
-      <c r="I754" t="inlineStr"/>
-      <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I754" t="n">
+        <v>155700</v>
+      </c>
+      <c r="J754" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -25303,8 +25339,14 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="J755" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -25333,11 +25375,19 @@
         <v>-3263.22572048</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
-      </c>
-      <c r="I756" t="inlineStr"/>
-      <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I756" t="n">
+        <v>155500</v>
+      </c>
+      <c r="J756" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -25366,11 +25416,19 @@
         <v>-3263.22572048</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
-      </c>
-      <c r="I757" t="inlineStr"/>
-      <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I757" t="n">
+        <v>155800</v>
+      </c>
+      <c r="J757" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -25399,11 +25457,19 @@
         <v>-3263.22572048</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
-      </c>
-      <c r="I758" t="inlineStr"/>
-      <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I758" t="n">
+        <v>155800</v>
+      </c>
+      <c r="J758" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -25432,11 +25498,19 @@
         <v>-3263.22572048</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
-      </c>
-      <c r="I759" t="inlineStr"/>
-      <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I759" t="n">
+        <v>155800</v>
+      </c>
+      <c r="J759" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -25465,11 +25539,19 @@
         <v>-3374.85482048</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
-      </c>
-      <c r="I760" t="inlineStr"/>
-      <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I760" t="n">
+        <v>155800</v>
+      </c>
+      <c r="J760" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -25498,11 +25580,19 @@
         <v>-3342.79712048</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
-      </c>
-      <c r="I761" t="inlineStr"/>
-      <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I761" t="n">
+        <v>155500</v>
+      </c>
+      <c r="J761" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -25531,11 +25621,19 @@
         <v>-3342.79712048</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
-      </c>
-      <c r="I762" t="inlineStr"/>
-      <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I762" t="n">
+        <v>155800</v>
+      </c>
+      <c r="J762" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -25564,11 +25662,19 @@
         <v>-3342.79712048</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
-      </c>
-      <c r="I763" t="inlineStr"/>
-      <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I763" t="n">
+        <v>155800</v>
+      </c>
+      <c r="J763" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -25603,9 +25709,13 @@
         <v>155800</v>
       </c>
       <c r="J764" t="n">
-        <v>155800</v>
-      </c>
-      <c r="K764" t="inlineStr"/>
+        <v>155200</v>
+      </c>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -25634,15 +25744,17 @@
         <v>-3342.79712048</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
-      </c>
-      <c r="I765" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I765" t="n">
+        <v>155800</v>
+      </c>
       <c r="J765" t="n">
-        <v>155800</v>
+        <v>155200</v>
       </c>
       <c r="K765" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L765" t="n">
@@ -25673,11 +25785,13 @@
         <v>-3329.84052048</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
-      </c>
-      <c r="I766" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I766" t="n">
+        <v>155800</v>
+      </c>
       <c r="J766" t="n">
-        <v>155800</v>
+        <v>155200</v>
       </c>
       <c r="K766" t="inlineStr">
         <is>
@@ -25712,11 +25826,13 @@
         <v>-3331.96922048</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
-      </c>
-      <c r="I767" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I767" t="n">
+        <v>156000</v>
+      </c>
       <c r="J767" t="n">
-        <v>155800</v>
+        <v>155200</v>
       </c>
       <c r="K767" t="inlineStr">
         <is>
@@ -25751,11 +25867,13 @@
         <v>-3305.22682048</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
-      </c>
-      <c r="I768" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I768" t="n">
+        <v>155900</v>
+      </c>
       <c r="J768" t="n">
-        <v>155800</v>
+        <v>155200</v>
       </c>
       <c r="K768" t="inlineStr">
         <is>
@@ -25790,11 +25908,13 @@
         <v>-3305.22682048</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
-      </c>
-      <c r="I769" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I769" t="n">
+        <v>156400</v>
+      </c>
       <c r="J769" t="n">
-        <v>155800</v>
+        <v>155200</v>
       </c>
       <c r="K769" t="inlineStr">
         <is>
@@ -25829,11 +25949,13 @@
         <v>-3256.74092048</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
-      </c>
-      <c r="I770" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I770" t="n">
+        <v>156400</v>
+      </c>
       <c r="J770" t="n">
-        <v>155800</v>
+        <v>155200</v>
       </c>
       <c r="K770" t="inlineStr">
         <is>
@@ -25868,11 +25990,13 @@
         <v>-3250.50262048</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
-      </c>
-      <c r="I771" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I771" t="n">
+        <v>156600</v>
+      </c>
       <c r="J771" t="n">
-        <v>155800</v>
+        <v>155200</v>
       </c>
       <c r="K771" t="inlineStr">
         <is>
@@ -25907,11 +26031,13 @@
         <v>-3308.52672746</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
-      </c>
-      <c r="I772" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I772" t="n">
+        <v>157300</v>
+      </c>
       <c r="J772" t="n">
-        <v>155800</v>
+        <v>155200</v>
       </c>
       <c r="K772" t="inlineStr">
         <is>
@@ -25946,11 +26072,13 @@
         <v>-3265.56372746</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
-      </c>
-      <c r="I773" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I773" t="n">
+        <v>157000</v>
+      </c>
       <c r="J773" t="n">
-        <v>155800</v>
+        <v>155200</v>
       </c>
       <c r="K773" t="inlineStr">
         <is>
@@ -25985,11 +26113,13 @@
         <v>-3265.58442746</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
-      </c>
-      <c r="I774" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I774" t="n">
+        <v>157200</v>
+      </c>
       <c r="J774" t="n">
-        <v>155800</v>
+        <v>155200</v>
       </c>
       <c r="K774" t="inlineStr">
         <is>
@@ -26024,11 +26154,13 @@
         <v>-3265.58442746</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
-      </c>
-      <c r="I775" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I775" t="n">
+        <v>157000</v>
+      </c>
       <c r="J775" t="n">
-        <v>155800</v>
+        <v>155200</v>
       </c>
       <c r="K775" t="inlineStr">
         <is>
@@ -26063,11 +26195,13 @@
         <v>-3265.54982746</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
-      </c>
-      <c r="I776" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I776" t="n">
+        <v>157000</v>
+      </c>
       <c r="J776" t="n">
-        <v>155800</v>
+        <v>155200</v>
       </c>
       <c r="K776" t="inlineStr">
         <is>
@@ -26102,11 +26236,13 @@
         <v>-3227.84502746</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
-      </c>
-      <c r="I777" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I777" t="n">
+        <v>157500</v>
+      </c>
       <c r="J777" t="n">
-        <v>155800</v>
+        <v>155200</v>
       </c>
       <c r="K777" t="inlineStr">
         <is>
@@ -26141,11 +26277,13 @@
         <v>-3212.69942746</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
-      </c>
-      <c r="I778" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I778" t="n">
+        <v>157700</v>
+      </c>
       <c r="J778" t="n">
-        <v>155800</v>
+        <v>155200</v>
       </c>
       <c r="K778" t="inlineStr">
         <is>
@@ -26180,11 +26318,13 @@
         <v>-3212.73192746</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
-      </c>
-      <c r="I779" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I779" t="n">
+        <v>157800</v>
+      </c>
       <c r="J779" t="n">
-        <v>155800</v>
+        <v>155200</v>
       </c>
       <c r="K779" t="inlineStr">
         <is>
@@ -26219,11 +26359,13 @@
         <v>-3212.73192746</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
-      </c>
-      <c r="I780" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I780" t="n">
+        <v>157600</v>
+      </c>
       <c r="J780" t="n">
-        <v>155800</v>
+        <v>155200</v>
       </c>
       <c r="K780" t="inlineStr">
         <is>
@@ -26258,11 +26400,13 @@
         <v>-3211.71282746</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
-      </c>
-      <c r="I781" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I781" t="n">
+        <v>157600</v>
+      </c>
       <c r="J781" t="n">
-        <v>155800</v>
+        <v>155200</v>
       </c>
       <c r="K781" t="inlineStr">
         <is>
@@ -26297,11 +26441,13 @@
         <v>-3224.74252746</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
-      </c>
-      <c r="I782" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I782" t="n">
+        <v>157700</v>
+      </c>
       <c r="J782" t="n">
-        <v>155800</v>
+        <v>155200</v>
       </c>
       <c r="K782" t="inlineStr">
         <is>
@@ -26336,11 +26482,13 @@
         <v>-3224.74252746</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
-      </c>
-      <c r="I783" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I783" t="n">
+        <v>157600</v>
+      </c>
       <c r="J783" t="n">
-        <v>155800</v>
+        <v>155200</v>
       </c>
       <c r="K783" t="inlineStr">
         <is>
@@ -26375,11 +26523,13 @@
         <v>-3185.41902746</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
-      </c>
-      <c r="I784" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I784" t="n">
+        <v>157600</v>
+      </c>
       <c r="J784" t="n">
-        <v>155800</v>
+        <v>155200</v>
       </c>
       <c r="K784" t="inlineStr">
         <is>
@@ -26414,11 +26564,13 @@
         <v>-3178.35612746</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
-      </c>
-      <c r="I785" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I785" t="n">
+        <v>157700</v>
+      </c>
       <c r="J785" t="n">
-        <v>155800</v>
+        <v>155200</v>
       </c>
       <c r="K785" t="inlineStr">
         <is>
@@ -26453,11 +26605,13 @@
         <v>-3178.45682746</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
-      </c>
-      <c r="I786" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I786" t="n">
+        <v>158100</v>
+      </c>
       <c r="J786" t="n">
-        <v>155800</v>
+        <v>155200</v>
       </c>
       <c r="K786" t="inlineStr">
         <is>
@@ -26492,11 +26646,13 @@
         <v>-3176.74512746</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
-      </c>
-      <c r="I787" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I787" t="n">
+        <v>157900</v>
+      </c>
       <c r="J787" t="n">
-        <v>155800</v>
+        <v>155200</v>
       </c>
       <c r="K787" t="inlineStr">
         <is>
@@ -26531,11 +26687,13 @@
         <v>-3176.74512746</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
-      </c>
-      <c r="I788" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I788" t="n">
+        <v>158000</v>
+      </c>
       <c r="J788" t="n">
-        <v>155800</v>
+        <v>155200</v>
       </c>
       <c r="K788" t="inlineStr">
         <is>
@@ -26570,11 +26728,13 @@
         <v>-3116.52172746</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
-      </c>
-      <c r="I789" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I789" t="n">
+        <v>158000</v>
+      </c>
       <c r="J789" t="n">
-        <v>155800</v>
+        <v>155200</v>
       </c>
       <c r="K789" t="inlineStr">
         <is>
@@ -26609,19 +26769,21 @@
         <v>-3154.94632746</v>
       </c>
       <c r="H790" t="n">
-        <v>2</v>
-      </c>
-      <c r="I790" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I790" t="n">
+        <v>158300</v>
+      </c>
       <c r="J790" t="n">
-        <v>155800</v>
+        <v>155200</v>
       </c>
       <c r="K790" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L790" t="n">
-        <v>1.009120667522465</v>
+        <v>1</v>
       </c>
       <c r="M790" t="inlineStr"/>
     </row>
@@ -26648,11 +26810,19 @@
         <v>-3154.94632746</v>
       </c>
       <c r="H791" t="n">
-        <v>2</v>
-      </c>
-      <c r="I791" t="inlineStr"/>
-      <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I791" t="n">
+        <v>158000</v>
+      </c>
+      <c r="J791" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -26681,11 +26851,19 @@
         <v>-3194.87352746</v>
       </c>
       <c r="H792" t="n">
-        <v>2</v>
-      </c>
-      <c r="I792" t="inlineStr"/>
-      <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I792" t="n">
+        <v>158000</v>
+      </c>
+      <c r="J792" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -26714,11 +26892,19 @@
         <v>-3225.78522746</v>
       </c>
       <c r="H793" t="n">
-        <v>2</v>
-      </c>
-      <c r="I793" t="inlineStr"/>
-      <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I793" t="n">
+        <v>157600</v>
+      </c>
+      <c r="J793" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -26747,11 +26933,19 @@
         <v>-3225.406927460001</v>
       </c>
       <c r="H794" t="n">
-        <v>2</v>
-      </c>
-      <c r="I794" t="inlineStr"/>
-      <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I794" t="n">
+        <v>157500</v>
+      </c>
+      <c r="J794" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -26780,11 +26974,19 @@
         <v>-3195.735027460001</v>
       </c>
       <c r="H795" t="n">
-        <v>2</v>
-      </c>
-      <c r="I795" t="inlineStr"/>
-      <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I795" t="n">
+        <v>157800</v>
+      </c>
+      <c r="J795" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -26813,11 +27015,19 @@
         <v>-3195.743627460001</v>
       </c>
       <c r="H796" t="n">
-        <v>2</v>
-      </c>
-      <c r="I796" t="inlineStr"/>
-      <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I796" t="n">
+        <v>158400</v>
+      </c>
+      <c r="J796" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -26846,11 +27056,19 @@
         <v>-3195.737727460001</v>
       </c>
       <c r="H797" t="n">
-        <v>2</v>
-      </c>
-      <c r="I797" t="inlineStr"/>
-      <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I797" t="n">
+        <v>158000</v>
+      </c>
+      <c r="J797" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -26879,11 +27097,19 @@
         <v>-3195.737727460001</v>
       </c>
       <c r="H798" t="n">
-        <v>2</v>
-      </c>
-      <c r="I798" t="inlineStr"/>
-      <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I798" t="n">
+        <v>158100</v>
+      </c>
+      <c r="J798" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -26912,11 +27138,19 @@
         <v>-3195.737727460001</v>
       </c>
       <c r="H799" t="n">
-        <v>2</v>
-      </c>
-      <c r="I799" t="inlineStr"/>
-      <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I799" t="n">
+        <v>158100</v>
+      </c>
+      <c r="J799" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -26945,11 +27179,19 @@
         <v>-3202.910927460001</v>
       </c>
       <c r="H800" t="n">
-        <v>2</v>
-      </c>
-      <c r="I800" t="inlineStr"/>
-      <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I800" t="n">
+        <v>158100</v>
+      </c>
+      <c r="J800" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -26978,11 +27220,19 @@
         <v>-3258.101227460001</v>
       </c>
       <c r="H801" t="n">
-        <v>2</v>
-      </c>
-      <c r="I801" t="inlineStr"/>
-      <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I801" t="n">
+        <v>157700</v>
+      </c>
+      <c r="J801" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -27011,11 +27261,19 @@
         <v>-3258.101227460001</v>
       </c>
       <c r="H802" t="n">
-        <v>2</v>
-      </c>
-      <c r="I802" t="inlineStr"/>
-      <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I802" t="n">
+        <v>157500</v>
+      </c>
+      <c r="J802" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -27044,11 +27302,19 @@
         <v>-3418.317327460001</v>
       </c>
       <c r="H803" t="n">
-        <v>2</v>
-      </c>
-      <c r="I803" t="inlineStr"/>
-      <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I803" t="n">
+        <v>157500</v>
+      </c>
+      <c r="J803" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -27077,11 +27343,19 @@
         <v>-3418.248527460001</v>
       </c>
       <c r="H804" t="n">
-        <v>2</v>
-      </c>
-      <c r="I804" t="inlineStr"/>
-      <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I804" t="n">
+        <v>156900</v>
+      </c>
+      <c r="J804" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -27116,9 +27390,13 @@
         <v>157000</v>
       </c>
       <c r="J805" t="n">
-        <v>157000</v>
-      </c>
-      <c r="K805" t="inlineStr"/>
+        <v>155200</v>
+      </c>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -27153,11 +27431,11 @@
         <v>157000</v>
       </c>
       <c r="J806" t="n">
-        <v>157000</v>
+        <v>155200</v>
       </c>
       <c r="K806" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L806" t="n">
@@ -27194,7 +27472,7 @@
         <v>157700</v>
       </c>
       <c r="J807" t="n">
-        <v>157000</v>
+        <v>155200</v>
       </c>
       <c r="K807" t="inlineStr">
         <is>
@@ -27235,7 +27513,7 @@
         <v>156900</v>
       </c>
       <c r="J808" t="n">
-        <v>157000</v>
+        <v>155200</v>
       </c>
       <c r="K808" t="inlineStr">
         <is>
@@ -27276,7 +27554,7 @@
         <v>156900</v>
       </c>
       <c r="J809" t="n">
-        <v>157000</v>
+        <v>155200</v>
       </c>
       <c r="K809" t="inlineStr">
         <is>
@@ -27317,7 +27595,7 @@
         <v>156900</v>
       </c>
       <c r="J810" t="n">
-        <v>157000</v>
+        <v>155200</v>
       </c>
       <c r="K810" t="inlineStr">
         <is>
@@ -27358,7 +27636,7 @@
         <v>156900</v>
       </c>
       <c r="J811" t="n">
-        <v>157000</v>
+        <v>155200</v>
       </c>
       <c r="K811" t="inlineStr">
         <is>
@@ -27399,7 +27677,7 @@
         <v>156800</v>
       </c>
       <c r="J812" t="n">
-        <v>157000</v>
+        <v>155200</v>
       </c>
       <c r="K812" t="inlineStr">
         <is>
@@ -27440,7 +27718,7 @@
         <v>156900</v>
       </c>
       <c r="J813" t="n">
-        <v>157000</v>
+        <v>155200</v>
       </c>
       <c r="K813" t="inlineStr">
         <is>
@@ -27481,7 +27759,7 @@
         <v>157000</v>
       </c>
       <c r="J814" t="n">
-        <v>157000</v>
+        <v>155200</v>
       </c>
       <c r="K814" t="inlineStr">
         <is>
@@ -27522,7 +27800,7 @@
         <v>156900</v>
       </c>
       <c r="J815" t="n">
-        <v>157000</v>
+        <v>155200</v>
       </c>
       <c r="K815" t="inlineStr">
         <is>
@@ -27563,7 +27841,7 @@
         <v>156900</v>
       </c>
       <c r="J816" t="n">
-        <v>157000</v>
+        <v>155200</v>
       </c>
       <c r="K816" t="inlineStr">
         <is>
@@ -27604,7 +27882,7 @@
         <v>156800</v>
       </c>
       <c r="J817" t="n">
-        <v>157000</v>
+        <v>155200</v>
       </c>
       <c r="K817" t="inlineStr">
         <is>
@@ -27645,7 +27923,7 @@
         <v>157700</v>
       </c>
       <c r="J818" t="n">
-        <v>157000</v>
+        <v>155200</v>
       </c>
       <c r="K818" t="inlineStr">
         <is>
@@ -27686,7 +27964,7 @@
         <v>157400</v>
       </c>
       <c r="J819" t="n">
-        <v>157000</v>
+        <v>155200</v>
       </c>
       <c r="K819" t="inlineStr">
         <is>
@@ -27727,7 +28005,7 @@
         <v>157800</v>
       </c>
       <c r="J820" t="n">
-        <v>157000</v>
+        <v>155200</v>
       </c>
       <c r="K820" t="inlineStr">
         <is>
@@ -27768,7 +28046,7 @@
         <v>158500</v>
       </c>
       <c r="J821" t="n">
-        <v>157000</v>
+        <v>155200</v>
       </c>
       <c r="K821" t="inlineStr">
         <is>
@@ -27809,7 +28087,7 @@
         <v>158100</v>
       </c>
       <c r="J822" t="n">
-        <v>157000</v>
+        <v>155200</v>
       </c>
       <c r="K822" t="inlineStr">
         <is>
@@ -27850,7 +28128,7 @@
         <v>158000</v>
       </c>
       <c r="J823" t="n">
-        <v>157000</v>
+        <v>155200</v>
       </c>
       <c r="K823" t="inlineStr">
         <is>
@@ -27891,7 +28169,7 @@
         <v>158400</v>
       </c>
       <c r="J824" t="n">
-        <v>157000</v>
+        <v>155200</v>
       </c>
       <c r="K824" t="inlineStr">
         <is>
@@ -27932,7 +28210,7 @@
         <v>158200</v>
       </c>
       <c r="J825" t="n">
-        <v>157000</v>
+        <v>155200</v>
       </c>
       <c r="K825" t="inlineStr">
         <is>
@@ -27973,7 +28251,7 @@
         <v>158200</v>
       </c>
       <c r="J826" t="n">
-        <v>157000</v>
+        <v>155200</v>
       </c>
       <c r="K826" t="inlineStr">
         <is>
@@ -28014,7 +28292,7 @@
         <v>158500</v>
       </c>
       <c r="J827" t="n">
-        <v>157000</v>
+        <v>155200</v>
       </c>
       <c r="K827" t="inlineStr">
         <is>
@@ -28055,7 +28333,7 @@
         <v>158100</v>
       </c>
       <c r="J828" t="n">
-        <v>157000</v>
+        <v>155200</v>
       </c>
       <c r="K828" t="inlineStr">
         <is>
@@ -28096,7 +28374,7 @@
         <v>158100</v>
       </c>
       <c r="J829" t="n">
-        <v>157000</v>
+        <v>155200</v>
       </c>
       <c r="K829" t="inlineStr">
         <is>
@@ -28137,7 +28415,7 @@
         <v>158500</v>
       </c>
       <c r="J830" t="n">
-        <v>157000</v>
+        <v>155200</v>
       </c>
       <c r="K830" t="inlineStr">
         <is>
@@ -28172,19 +28450,21 @@
         <v>-2966.952327460002</v>
       </c>
       <c r="H831" t="n">
-        <v>2</v>
-      </c>
-      <c r="I831" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I831" t="n">
+        <v>158800</v>
+      </c>
       <c r="J831" t="n">
-        <v>157000</v>
+        <v>155200</v>
       </c>
       <c r="K831" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L831" t="n">
-        <v>1.007101910828026</v>
+        <v>1</v>
       </c>
       <c r="M831" t="inlineStr"/>
     </row>
@@ -28211,11 +28491,19 @@
         <v>-2928.581027460002</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
-      </c>
-      <c r="I832" t="inlineStr"/>
-      <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I832" t="n">
+        <v>158900</v>
+      </c>
+      <c r="J832" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -28244,11 +28532,19 @@
         <v>-2852.864727460002</v>
       </c>
       <c r="H833" t="n">
-        <v>2</v>
-      </c>
-      <c r="I833" t="inlineStr"/>
-      <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I833" t="n">
+        <v>159300</v>
+      </c>
+      <c r="J833" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -28277,11 +28573,19 @@
         <v>-2747.408827460002</v>
       </c>
       <c r="H834" t="n">
-        <v>2</v>
-      </c>
-      <c r="I834" t="inlineStr"/>
-      <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I834" t="n">
+        <v>159400</v>
+      </c>
+      <c r="J834" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -28310,11 +28614,19 @@
         <v>-2548.517227460002</v>
       </c>
       <c r="H835" t="n">
-        <v>2</v>
-      </c>
-      <c r="I835" t="inlineStr"/>
-      <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I835" t="n">
+        <v>159700</v>
+      </c>
+      <c r="J835" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -28343,11 +28655,19 @@
         <v>-2548.517227460002</v>
       </c>
       <c r="H836" t="n">
-        <v>2</v>
-      </c>
-      <c r="I836" t="inlineStr"/>
-      <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I836" t="n">
+        <v>160100</v>
+      </c>
+      <c r="J836" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -28376,11 +28696,19 @@
         <v>-2599.924527460002</v>
       </c>
       <c r="H837" t="n">
-        <v>2</v>
-      </c>
-      <c r="I837" t="inlineStr"/>
-      <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I837" t="n">
+        <v>160100</v>
+      </c>
+      <c r="J837" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -28409,11 +28737,19 @@
         <v>-2513.291927460002</v>
       </c>
       <c r="H838" t="n">
-        <v>2</v>
-      </c>
-      <c r="I838" t="inlineStr"/>
-      <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I838" t="n">
+        <v>159800</v>
+      </c>
+      <c r="J838" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -28442,11 +28778,19 @@
         <v>-2380.979627460002</v>
       </c>
       <c r="H839" t="n">
-        <v>2</v>
-      </c>
-      <c r="I839" t="inlineStr"/>
-      <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I839" t="n">
+        <v>160200</v>
+      </c>
+      <c r="J839" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -28475,11 +28819,19 @@
         <v>-2208.491627460002</v>
       </c>
       <c r="H840" t="n">
-        <v>2</v>
-      </c>
-      <c r="I840" t="inlineStr"/>
-      <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I840" t="n">
+        <v>160400</v>
+      </c>
+      <c r="J840" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -28508,11 +28860,19 @@
         <v>-2253.099527460002</v>
       </c>
       <c r="H841" t="n">
-        <v>2</v>
-      </c>
-      <c r="I841" t="inlineStr"/>
-      <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I841" t="n">
+        <v>160600</v>
+      </c>
+      <c r="J841" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -28541,11 +28901,19 @@
         <v>-2294.727627460002</v>
       </c>
       <c r="H842" t="n">
-        <v>2</v>
-      </c>
-      <c r="I842" t="inlineStr"/>
-      <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I842" t="n">
+        <v>160300</v>
+      </c>
+      <c r="J842" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -28574,11 +28942,19 @@
         <v>-2256.576327460002</v>
       </c>
       <c r="H843" t="n">
-        <v>2</v>
-      </c>
-      <c r="I843" t="inlineStr"/>
-      <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I843" t="n">
+        <v>160100</v>
+      </c>
+      <c r="J843" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -28607,11 +28983,19 @@
         <v>-2278.052027460002</v>
       </c>
       <c r="H844" t="n">
-        <v>2</v>
-      </c>
-      <c r="I844" t="inlineStr"/>
-      <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I844" t="n">
+        <v>160200</v>
+      </c>
+      <c r="J844" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -28640,11 +29024,19 @@
         <v>-2441.005527460002</v>
       </c>
       <c r="H845" t="n">
-        <v>2</v>
-      </c>
-      <c r="I845" t="inlineStr"/>
-      <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I845" t="n">
+        <v>159900</v>
+      </c>
+      <c r="J845" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -28673,11 +29065,19 @@
         <v>-2428.444427460002</v>
       </c>
       <c r="H846" t="n">
-        <v>2</v>
-      </c>
-      <c r="I846" t="inlineStr"/>
-      <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I846" t="n">
+        <v>159800</v>
+      </c>
+      <c r="J846" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -28706,11 +29106,19 @@
         <v>-2386.049727460002</v>
       </c>
       <c r="H847" t="n">
-        <v>2</v>
-      </c>
-      <c r="I847" t="inlineStr"/>
-      <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I847" t="n">
+        <v>160100</v>
+      </c>
+      <c r="J847" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -28739,11 +29147,19 @@
         <v>-2580.743527460002</v>
       </c>
       <c r="H848" t="n">
-        <v>2</v>
-      </c>
-      <c r="I848" t="inlineStr"/>
-      <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I848" t="n">
+        <v>160200</v>
+      </c>
+      <c r="J848" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -28772,11 +29188,19 @@
         <v>-2502.284727460003</v>
       </c>
       <c r="H849" t="n">
-        <v>2</v>
-      </c>
-      <c r="I849" t="inlineStr"/>
-      <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I849" t="n">
+        <v>160000</v>
+      </c>
+      <c r="J849" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -28805,11 +29229,19 @@
         <v>-2502.284727460003</v>
       </c>
       <c r="H850" t="n">
-        <v>2</v>
-      </c>
-      <c r="I850" t="inlineStr"/>
-      <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I850" t="n">
+        <v>160200</v>
+      </c>
+      <c r="J850" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -28838,11 +29270,17 @@
         <v>-2505.888527460002</v>
       </c>
       <c r="H851" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
-      <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+      <c r="J851" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -28871,11 +29309,19 @@
         <v>-2505.888527460002</v>
       </c>
       <c r="H852" t="n">
-        <v>2</v>
-      </c>
-      <c r="I852" t="inlineStr"/>
-      <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I852" t="n">
+        <v>159900</v>
+      </c>
+      <c r="J852" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -28904,11 +29350,17 @@
         <v>-2517.896827460002</v>
       </c>
       <c r="H853" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
-      <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="J853" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -28937,11 +29389,19 @@
         <v>-2527.896827460002</v>
       </c>
       <c r="H854" t="n">
-        <v>2</v>
-      </c>
-      <c r="I854" t="inlineStr"/>
-      <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I854" t="n">
+        <v>159700</v>
+      </c>
+      <c r="J854" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -28970,11 +29430,19 @@
         <v>-2548.830227460002</v>
       </c>
       <c r="H855" t="n">
-        <v>2</v>
-      </c>
-      <c r="I855" t="inlineStr"/>
-      <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I855" t="n">
+        <v>159500</v>
+      </c>
+      <c r="J855" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -29003,11 +29471,19 @@
         <v>-2557.069027460002</v>
       </c>
       <c r="H856" t="n">
-        <v>2</v>
-      </c>
-      <c r="I856" t="inlineStr"/>
-      <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I856" t="n">
+        <v>159000</v>
+      </c>
+      <c r="J856" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -29036,11 +29512,19 @@
         <v>-2534.166227460003</v>
       </c>
       <c r="H857" t="n">
-        <v>2</v>
-      </c>
-      <c r="I857" t="inlineStr"/>
-      <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I857" t="n">
+        <v>158900</v>
+      </c>
+      <c r="J857" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -29069,11 +29553,19 @@
         <v>-2483.807727460003</v>
       </c>
       <c r="H858" t="n">
-        <v>2</v>
-      </c>
-      <c r="I858" t="inlineStr"/>
-      <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I858" t="n">
+        <v>159000</v>
+      </c>
+      <c r="J858" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -29102,11 +29594,19 @@
         <v>-2483.807727460003</v>
       </c>
       <c r="H859" t="n">
-        <v>2</v>
-      </c>
-      <c r="I859" t="inlineStr"/>
-      <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I859" t="n">
+        <v>159300</v>
+      </c>
+      <c r="J859" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -29135,11 +29635,19 @@
         <v>-2483.927727460003</v>
       </c>
       <c r="H860" t="n">
-        <v>2</v>
-      </c>
-      <c r="I860" t="inlineStr"/>
-      <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I860" t="n">
+        <v>159300</v>
+      </c>
+      <c r="J860" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -29168,11 +29676,17 @@
         <v>-2513.143427460003</v>
       </c>
       <c r="H861" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
-      <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+      <c r="J861" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -29201,11 +29715,17 @@
         <v>-2511.793427460003</v>
       </c>
       <c r="H862" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
-      <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+      <c r="J862" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -29234,11 +29754,17 @@
         <v>-2511.793427460003</v>
       </c>
       <c r="H863" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
-      <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+      <c r="J863" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -29267,11 +29793,17 @@
         <v>-2511.793427460003</v>
       </c>
       <c r="H864" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
-      <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+      <c r="J864" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -29300,11 +29832,17 @@
         <v>-2511.724127460003</v>
       </c>
       <c r="H865" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
-      <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+      <c r="J865" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -29333,11 +29871,17 @@
         <v>-2511.034127460003</v>
       </c>
       <c r="H866" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
-      <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+      <c r="J866" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -29366,11 +29910,17 @@
         <v>-2548.234127460003</v>
       </c>
       <c r="H867" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
-      <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+      <c r="J867" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -29399,11 +29949,17 @@
         <v>-2547.004327460003</v>
       </c>
       <c r="H868" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
-      <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+      <c r="J868" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -29432,11 +29988,17 @@
         <v>-2562.658727460002</v>
       </c>
       <c r="H869" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
-      <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+      <c r="J869" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -29465,11 +30027,17 @@
         <v>-2562.658727460002</v>
       </c>
       <c r="H870" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
-      <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+      <c r="J870" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -29498,11 +30066,17 @@
         <v>-2562.668027460003</v>
       </c>
       <c r="H871" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
-      <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+      <c r="J871" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -29531,11 +30105,17 @@
         <v>-2638.404027460002</v>
       </c>
       <c r="H872" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
-      <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="J872" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -29564,11 +30144,17 @@
         <v>-2638.404027460002</v>
       </c>
       <c r="H873" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
-      <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="J873" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -29597,11 +30183,17 @@
         <v>-2638.404027460002</v>
       </c>
       <c r="H874" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
-      <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="J874" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -29630,11 +30222,17 @@
         <v>-2638.404027460002</v>
       </c>
       <c r="H875" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
-      <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="J875" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -29663,11 +30261,17 @@
         <v>-2638.044027460002</v>
       </c>
       <c r="H876" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
-      <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="J876" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -29696,11 +30300,17 @@
         <v>-2639.601827460002</v>
       </c>
       <c r="H877" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
-      <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="J877" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -29732,8 +30342,14 @@
         <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
-      <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="J878" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -29762,11 +30378,17 @@
         <v>-2652.823127460003</v>
       </c>
       <c r="H879" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
-      <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+      <c r="J879" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -29798,8 +30420,14 @@
         <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
-      <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+      <c r="J880" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -29831,8 +30459,14 @@
         <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
-      <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+      <c r="J881" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -29864,8 +30498,14 @@
         <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
-      <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+      <c r="J882" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -29897,8 +30537,14 @@
         <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
-      <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+      <c r="J883" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -29930,8 +30576,14 @@
         <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
-      <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+      <c r="J884" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -29963,8 +30615,14 @@
         <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
-      <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+      <c r="J885" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -29996,8 +30654,14 @@
         <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
-      <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+      <c r="J886" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -30029,8 +30693,14 @@
         <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
-      <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+      <c r="J887" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -30062,8 +30732,14 @@
         <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
-      <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+      <c r="J888" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -30095,8 +30771,14 @@
         <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
-      <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+      <c r="J889" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -30128,8 +30810,14 @@
         <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
-      <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+      <c r="J890" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -30161,8 +30849,14 @@
         <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
-      <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+      <c r="J891" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -30194,8 +30888,14 @@
         <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
-      <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+      <c r="J892" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -30227,8 +30927,14 @@
         <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
-      <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+      <c r="J893" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -30260,8 +30966,14 @@
         <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
-      <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+      <c r="J894" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -30293,8 +31005,14 @@
         <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
-      <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+      <c r="J895" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -30326,8 +31044,14 @@
         <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
-      <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+      <c r="J896" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -30359,8 +31083,14 @@
         <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
-      <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+      <c r="J897" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -30392,8 +31122,14 @@
         <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
-      <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+      <c r="J898" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -30425,8 +31161,14 @@
         <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
-      <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+      <c r="J899" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -30458,8 +31200,14 @@
         <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
-      <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
+      <c r="J900" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -30491,8 +31239,14 @@
         <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
-      <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr"/>
+      <c r="J901" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -30524,8 +31278,14 @@
         <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
-      <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
+      <c r="J902" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -30557,8 +31317,14 @@
         <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
-      <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
+      <c r="J903" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -30590,8 +31356,14 @@
         <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
-      <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
+      <c r="J904" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -30623,8 +31395,14 @@
         <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
-      <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
+      <c r="J905" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -30656,8 +31434,14 @@
         <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
-      <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr"/>
+      <c r="J906" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -30689,8 +31473,14 @@
         <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
-      <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr"/>
+      <c r="J907" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -30722,8 +31512,14 @@
         <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
-      <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr"/>
+      <c r="J908" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -30752,11 +31548,17 @@
         <v>-2303.975499640002</v>
       </c>
       <c r="H909" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
-      <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr"/>
+      <c r="J909" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -30785,11 +31587,17 @@
         <v>-2177.727699640002</v>
       </c>
       <c r="H910" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
-      <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr"/>
+      <c r="J910" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -30818,11 +31626,17 @@
         <v>-2313.813199640002</v>
       </c>
       <c r="H911" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
-      <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr"/>
+      <c r="J911" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -30851,11 +31665,17 @@
         <v>-2391.834499640002</v>
       </c>
       <c r="H912" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
-      <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr"/>
+      <c r="J912" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -30884,11 +31704,17 @@
         <v>-2433.786099640002</v>
       </c>
       <c r="H913" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
-      <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr"/>
+      <c r="J913" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -30917,11 +31743,17 @@
         <v>-2418.727199640002</v>
       </c>
       <c r="H914" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
-      <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr"/>
+      <c r="J914" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K914" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -30950,11 +31782,17 @@
         <v>-2354.800099640002</v>
       </c>
       <c r="H915" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
-      <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr"/>
+      <c r="J915" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K915" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -30983,11 +31821,17 @@
         <v>-2362.825599640003</v>
       </c>
       <c r="H916" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
-      <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr"/>
+      <c r="J916" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K916" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -31016,11 +31860,17 @@
         <v>-2347.888299640003</v>
       </c>
       <c r="H917" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
-      <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr"/>
+      <c r="J917" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K917" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -31049,11 +31899,17 @@
         <v>-2335.358299640002</v>
       </c>
       <c r="H918" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
-      <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr"/>
+      <c r="J918" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K918" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -31082,11 +31938,17 @@
         <v>-2307.078899640002</v>
       </c>
       <c r="H919" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
-      <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr"/>
+      <c r="J919" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K919" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -31115,11 +31977,17 @@
         <v>-2290.797010420003</v>
       </c>
       <c r="H920" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
-      <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr"/>
+      <c r="J920" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K920" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -31148,11 +32016,17 @@
         <v>-2376.333510420003</v>
       </c>
       <c r="H921" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
-      <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr"/>
+      <c r="J921" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K921" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -31181,11 +32055,17 @@
         <v>-2314.822564270003</v>
       </c>
       <c r="H922" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
-      <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr"/>
+      <c r="J922" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K922" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -31214,11 +32094,17 @@
         <v>-2345.617564270003</v>
       </c>
       <c r="H923" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
-      <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr"/>
+      <c r="J923" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -31247,11 +32133,17 @@
         <v>-2345.617564270003</v>
       </c>
       <c r="H924" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
-      <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr"/>
+      <c r="J924" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K924" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -31283,8 +32175,14 @@
         <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
-      <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr"/>
+      <c r="J925" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K925" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -31316,8 +32214,14 @@
         <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
-      <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr"/>
+      <c r="J926" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K926" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -31349,8 +32253,14 @@
         <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
-      <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr"/>
+      <c r="J927" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K927" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -31382,8 +32292,14 @@
         <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
-      <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr"/>
+      <c r="J928" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K928" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -31415,8 +32331,14 @@
         <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
-      <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr"/>
+      <c r="J929" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K929" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -31448,8 +32370,14 @@
         <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
-      <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr"/>
+      <c r="J930" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K930" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -31481,8 +32409,14 @@
         <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
-      <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr"/>
+      <c r="J931" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K931" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -31514,8 +32448,14 @@
         <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
-      <c r="J932" t="inlineStr"/>
-      <c r="K932" t="inlineStr"/>
+      <c r="J932" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K932" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -31547,8 +32487,14 @@
         <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
-      <c r="J933" t="inlineStr"/>
-      <c r="K933" t="inlineStr"/>
+      <c r="J933" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K933" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -31580,8 +32526,14 @@
         <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
-      <c r="J934" t="inlineStr"/>
-      <c r="K934" t="inlineStr"/>
+      <c r="J934" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K934" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -31613,8 +32565,14 @@
         <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
-      <c r="J935" t="inlineStr"/>
-      <c r="K935" t="inlineStr"/>
+      <c r="J935" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K935" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -31646,8 +32604,14 @@
         <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
-      <c r="J936" t="inlineStr"/>
-      <c r="K936" t="inlineStr"/>
+      <c r="J936" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K936" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -31679,8 +32643,14 @@
         <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
-      <c r="J937" t="inlineStr"/>
-      <c r="K937" t="inlineStr"/>
+      <c r="J937" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K937" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -31712,8 +32682,14 @@
         <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
-      <c r="J938" t="inlineStr"/>
-      <c r="K938" t="inlineStr"/>
+      <c r="J938" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K938" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -31745,8 +32721,14 @@
         <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
-      <c r="J939" t="inlineStr"/>
-      <c r="K939" t="inlineStr"/>
+      <c r="J939" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K939" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -31778,8 +32760,14 @@
         <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
-      <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr"/>
+      <c r="J940" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K940" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -31811,8 +32799,14 @@
         <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
-      <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr"/>
+      <c r="J941" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K941" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -31844,8 +32838,14 @@
         <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
-      <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr"/>
+      <c r="J942" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K942" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -31877,8 +32877,14 @@
         <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
-      <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr"/>
+      <c r="J943" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K943" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -31910,8 +32916,14 @@
         <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
-      <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr"/>
+      <c r="J944" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K944" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -31943,8 +32955,14 @@
         <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
-      <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr"/>
+      <c r="J945" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K945" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -31976,8 +32994,14 @@
         <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
-      <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr"/>
+      <c r="J946" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K946" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -32009,8 +33033,14 @@
         <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
-      <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr"/>
+      <c r="J947" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K947" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -32042,8 +33072,14 @@
         <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
-      <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr"/>
+      <c r="J948" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K948" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -32075,8 +33111,14 @@
         <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
-      <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr"/>
+      <c r="J949" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K949" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -32108,8 +33150,14 @@
         <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
-      <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr"/>
+      <c r="J950" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K950" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -32141,8 +33189,14 @@
         <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
-      <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr"/>
+      <c r="J951" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K951" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -32174,8 +33228,14 @@
         <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
-      <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr"/>
+      <c r="J952" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K952" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -32204,11 +33264,17 @@
         <v>-3019.904054230002</v>
       </c>
       <c r="H953" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
-      <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr"/>
+      <c r="J953" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K953" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -32237,11 +33303,17 @@
         <v>-2969.013954230002</v>
       </c>
       <c r="H954" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
-      <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr"/>
+      <c r="J954" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K954" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -32270,11 +33342,17 @@
         <v>-2933.866954230002</v>
       </c>
       <c r="H955" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
-      <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr"/>
+      <c r="J955" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K955" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -32303,11 +33381,17 @@
         <v>-2965.466954230002</v>
       </c>
       <c r="H956" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
-      <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr"/>
+      <c r="J956" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K956" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -32336,11 +33420,17 @@
         <v>-2955.715354230002</v>
       </c>
       <c r="H957" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
-      <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr"/>
+      <c r="J957" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K957" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -32369,11 +33459,17 @@
         <v>-2927.745947140002</v>
       </c>
       <c r="H958" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
-      <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr"/>
+      <c r="J958" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K958" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -32402,11 +33498,17 @@
         <v>-2933.833347140002</v>
       </c>
       <c r="H959" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
-      <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr"/>
+      <c r="J959" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K959" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -32438,8 +33540,14 @@
         <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
-      <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr"/>
+      <c r="J960" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K960" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -32471,8 +33579,14 @@
         <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
-      <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr"/>
+      <c r="J961" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K961" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -32504,8 +33618,14 @@
         <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
-      <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr"/>
+      <c r="J962" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K962" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -32537,8 +33657,14 @@
         <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
-      <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr"/>
+      <c r="J963" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K963" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -32570,8 +33696,14 @@
         <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
-      <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr"/>
+      <c r="J964" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K964" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -32603,8 +33735,14 @@
         <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
-      <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr"/>
+      <c r="J965" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K965" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -32636,8 +33774,14 @@
         <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
-      <c r="J966" t="inlineStr"/>
-      <c r="K966" t="inlineStr"/>
+      <c r="J966" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K966" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -32669,8 +33813,14 @@
         <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
-      <c r="J967" t="inlineStr"/>
-      <c r="K967" t="inlineStr"/>
+      <c r="J967" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K967" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L967" t="n">
         <v>1</v>
       </c>
@@ -32702,8 +33852,14 @@
         <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
-      <c r="J968" t="inlineStr"/>
-      <c r="K968" t="inlineStr"/>
+      <c r="J968" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K968" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -32735,8 +33891,14 @@
         <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
-      <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr"/>
+      <c r="J969" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K969" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -32768,8 +33930,14 @@
         <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
-      <c r="J970" t="inlineStr"/>
-      <c r="K970" t="inlineStr"/>
+      <c r="J970" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K970" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -32801,8 +33969,14 @@
         <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
-      <c r="J971" t="inlineStr"/>
-      <c r="K971" t="inlineStr"/>
+      <c r="J971" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K971" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -32834,8 +34008,14 @@
         <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
-      <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr"/>
+      <c r="J972" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K972" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -32867,8 +34047,14 @@
         <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
-      <c r="J973" t="inlineStr"/>
-      <c r="K973" t="inlineStr"/>
+      <c r="J973" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K973" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -32900,8 +34086,14 @@
         <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
-      <c r="J974" t="inlineStr"/>
-      <c r="K974" t="inlineStr"/>
+      <c r="J974" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K974" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -32933,8 +34125,14 @@
         <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
-      <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr"/>
+      <c r="J975" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K975" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -32966,8 +34164,14 @@
         <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
-      <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr"/>
+      <c r="J976" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K976" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -32999,8 +34203,14 @@
         <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
-      <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr"/>
+      <c r="J977" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K977" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -33032,8 +34242,14 @@
         <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
-      <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr"/>
+      <c r="J978" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K978" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -33065,8 +34281,14 @@
         <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
-      <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr"/>
+      <c r="J979" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K979" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -33098,8 +34320,14 @@
         <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
-      <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr"/>
+      <c r="J980" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K980" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -33131,8 +34359,14 @@
         <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
-      <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr"/>
+      <c r="J981" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K981" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -33164,8 +34398,14 @@
         <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
-      <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr"/>
+      <c r="J982" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K982" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -33197,8 +34437,14 @@
         <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
-      <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr"/>
+      <c r="J983" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K983" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -33230,8 +34476,14 @@
         <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
-      <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr"/>
+      <c r="J984" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K984" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -33263,8 +34515,14 @@
         <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
-      <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr"/>
+      <c r="J985" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K985" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -33296,8 +34554,14 @@
         <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
-      <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr"/>
+      <c r="J986" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K986" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -33329,8 +34593,14 @@
         <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
-      <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr"/>
+      <c r="J987" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K987" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -33362,8 +34632,14 @@
         <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
-      <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr"/>
+      <c r="J988" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K988" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -33395,8 +34671,14 @@
         <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
-      <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr"/>
+      <c r="J989" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K989" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -33428,8 +34710,14 @@
         <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
-      <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr"/>
+      <c r="J990" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K990" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -33461,8 +34749,14 @@
         <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
-      <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr"/>
+      <c r="J991" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K991" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -33494,8 +34788,14 @@
         <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
-      <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr"/>
+      <c r="J992" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K992" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -33527,8 +34827,14 @@
         <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
-      <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr"/>
+      <c r="J993" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K993" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -33560,8 +34866,14 @@
         <v>0</v>
       </c>
       <c r="I994" t="inlineStr"/>
-      <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr"/>
+      <c r="J994" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K994" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -33593,8 +34905,14 @@
         <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
-      <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr"/>
+      <c r="J995" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K995" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -33623,11 +34941,17 @@
         <v>-2561.488955010002</v>
       </c>
       <c r="H996" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
-      <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr"/>
+      <c r="J996" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K996" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -33656,11 +34980,17 @@
         <v>-2558.116955010003</v>
       </c>
       <c r="H997" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
-      <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr"/>
+      <c r="J997" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K997" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -33692,8 +35022,14 @@
         <v>0</v>
       </c>
       <c r="I998" t="inlineStr"/>
-      <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr"/>
+      <c r="J998" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K998" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -33725,8 +35061,14 @@
         <v>0</v>
       </c>
       <c r="I999" t="inlineStr"/>
-      <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr"/>
+      <c r="J999" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K999" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -33758,8 +35100,14 @@
         <v>0</v>
       </c>
       <c r="I1000" t="inlineStr"/>
-      <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr"/>
+      <c r="J1000" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1000" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -33791,8 +35139,14 @@
         <v>0</v>
       </c>
       <c r="I1001" t="inlineStr"/>
-      <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr"/>
+      <c r="J1001" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1001" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -33824,8 +35178,14 @@
         <v>0</v>
       </c>
       <c r="I1002" t="inlineStr"/>
-      <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr"/>
+      <c r="J1002" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1002" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -33857,8 +35217,14 @@
         <v>0</v>
       </c>
       <c r="I1003" t="inlineStr"/>
-      <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr"/>
+      <c r="J1003" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1003" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -33890,8 +35256,14 @@
         <v>0</v>
       </c>
       <c r="I1004" t="inlineStr"/>
-      <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr"/>
+      <c r="J1004" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1004" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -33923,8 +35295,14 @@
         <v>0</v>
       </c>
       <c r="I1005" t="inlineStr"/>
-      <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr"/>
+      <c r="J1005" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1005" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -33956,8 +35334,14 @@
         <v>0</v>
       </c>
       <c r="I1006" t="inlineStr"/>
-      <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr"/>
+      <c r="J1006" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1006" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -33989,8 +35373,14 @@
         <v>0</v>
       </c>
       <c r="I1007" t="inlineStr"/>
-      <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr"/>
+      <c r="J1007" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1007" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -34022,8 +35412,14 @@
         <v>0</v>
       </c>
       <c r="I1008" t="inlineStr"/>
-      <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr"/>
+      <c r="J1008" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1008" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -34055,8 +35451,14 @@
         <v>0</v>
       </c>
       <c r="I1009" t="inlineStr"/>
-      <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr"/>
+      <c r="J1009" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1009" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -34088,8 +35490,14 @@
         <v>0</v>
       </c>
       <c r="I1010" t="inlineStr"/>
-      <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr"/>
+      <c r="J1010" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1010" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -34121,8 +35529,14 @@
         <v>0</v>
       </c>
       <c r="I1011" t="inlineStr"/>
-      <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr"/>
+      <c r="J1011" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1011" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -34154,8 +35568,14 @@
         <v>0</v>
       </c>
       <c r="I1012" t="inlineStr"/>
-      <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr"/>
+      <c r="J1012" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1012" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -34187,8 +35607,14 @@
         <v>0</v>
       </c>
       <c r="I1013" t="inlineStr"/>
-      <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr"/>
+      <c r="J1013" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1013" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -34220,8 +35646,14 @@
         <v>0</v>
       </c>
       <c r="I1014" t="inlineStr"/>
-      <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr"/>
+      <c r="J1014" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1014" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -34253,8 +35685,14 @@
         <v>0</v>
       </c>
       <c r="I1015" t="inlineStr"/>
-      <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr"/>
+      <c r="J1015" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1015" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -34286,8 +35724,14 @@
         <v>0</v>
       </c>
       <c r="I1016" t="inlineStr"/>
-      <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr"/>
+      <c r="J1016" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1016" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -34319,8 +35763,14 @@
         <v>0</v>
       </c>
       <c r="I1017" t="inlineStr"/>
-      <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr"/>
+      <c r="J1017" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1017" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -34352,8 +35802,14 @@
         <v>0</v>
       </c>
       <c r="I1018" t="inlineStr"/>
-      <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr"/>
+      <c r="J1018" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1018" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -34385,8 +35841,14 @@
         <v>0</v>
       </c>
       <c r="I1019" t="inlineStr"/>
-      <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr"/>
+      <c r="J1019" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1019" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -34418,8 +35880,14 @@
         <v>0</v>
       </c>
       <c r="I1020" t="inlineStr"/>
-      <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr"/>
+      <c r="J1020" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1020" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -34451,8 +35919,14 @@
         <v>0</v>
       </c>
       <c r="I1021" t="inlineStr"/>
-      <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr"/>
+      <c r="J1021" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1021" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -34484,8 +35958,14 @@
         <v>0</v>
       </c>
       <c r="I1022" t="inlineStr"/>
-      <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr"/>
+      <c r="J1022" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1022" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -34517,8 +35997,14 @@
         <v>0</v>
       </c>
       <c r="I1023" t="inlineStr"/>
-      <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr"/>
+      <c r="J1023" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1023" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1023" t="n">
         <v>1</v>
       </c>
@@ -34550,8 +36036,14 @@
         <v>0</v>
       </c>
       <c r="I1024" t="inlineStr"/>
-      <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr"/>
+      <c r="J1024" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1024" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1024" t="n">
         <v>1</v>
       </c>
@@ -34583,8 +36075,14 @@
         <v>0</v>
       </c>
       <c r="I1025" t="inlineStr"/>
-      <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr"/>
+      <c r="J1025" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1025" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1025" t="n">
         <v>1</v>
       </c>
@@ -34616,8 +36114,14 @@
         <v>0</v>
       </c>
       <c r="I1026" t="inlineStr"/>
-      <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr"/>
+      <c r="J1026" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1026" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1026" t="n">
         <v>1</v>
       </c>
@@ -34649,8 +36153,14 @@
         <v>0</v>
       </c>
       <c r="I1027" t="inlineStr"/>
-      <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr"/>
+      <c r="J1027" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1027" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1027" t="n">
         <v>1</v>
       </c>
@@ -34682,8 +36192,14 @@
         <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
-      <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr"/>
+      <c r="J1028" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1028" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1028" t="n">
         <v>1</v>
       </c>
@@ -34715,8 +36231,14 @@
         <v>0</v>
       </c>
       <c r="I1029" t="inlineStr"/>
-      <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr"/>
+      <c r="J1029" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1029" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1029" t="n">
         <v>1</v>
       </c>
@@ -34748,8 +36270,14 @@
         <v>0</v>
       </c>
       <c r="I1030" t="inlineStr"/>
-      <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr"/>
+      <c r="J1030" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1030" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1030" t="n">
         <v>1</v>
       </c>
@@ -34781,8 +36309,14 @@
         <v>0</v>
       </c>
       <c r="I1031" t="inlineStr"/>
-      <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr"/>
+      <c r="J1031" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1031" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1031" t="n">
         <v>1</v>
       </c>
@@ -34814,8 +36348,14 @@
         <v>0</v>
       </c>
       <c r="I1032" t="inlineStr"/>
-      <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr"/>
+      <c r="J1032" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1032" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1032" t="n">
         <v>1</v>
       </c>
@@ -34847,8 +36387,14 @@
         <v>0</v>
       </c>
       <c r="I1033" t="inlineStr"/>
-      <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr"/>
+      <c r="J1033" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1033" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1033" t="n">
         <v>1</v>
       </c>
@@ -34880,8 +36426,14 @@
         <v>0</v>
       </c>
       <c r="I1034" t="inlineStr"/>
-      <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr"/>
+      <c r="J1034" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1034" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1034" t="n">
         <v>1</v>
       </c>
@@ -34913,8 +36465,14 @@
         <v>0</v>
       </c>
       <c r="I1035" t="inlineStr"/>
-      <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr"/>
+      <c r="J1035" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1035" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1035" t="n">
         <v>1</v>
       </c>
@@ -34946,8 +36504,14 @@
         <v>0</v>
       </c>
       <c r="I1036" t="inlineStr"/>
-      <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr"/>
+      <c r="J1036" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1036" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1036" t="n">
         <v>1</v>
       </c>
@@ -34979,8 +36543,14 @@
         <v>0</v>
       </c>
       <c r="I1037" t="inlineStr"/>
-      <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr"/>
+      <c r="J1037" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1037" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1037" t="n">
         <v>1</v>
       </c>
@@ -35012,8 +36582,14 @@
         <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
-      <c r="J1038" t="inlineStr"/>
-      <c r="K1038" t="inlineStr"/>
+      <c r="J1038" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1038" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1038" t="n">
         <v>1</v>
       </c>
@@ -35045,8 +36621,14 @@
         <v>0</v>
       </c>
       <c r="I1039" t="inlineStr"/>
-      <c r="J1039" t="inlineStr"/>
-      <c r="K1039" t="inlineStr"/>
+      <c r="J1039" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1039" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1039" t="n">
         <v>1</v>
       </c>
@@ -35078,8 +36660,14 @@
         <v>0</v>
       </c>
       <c r="I1040" t="inlineStr"/>
-      <c r="J1040" t="inlineStr"/>
-      <c r="K1040" t="inlineStr"/>
+      <c r="J1040" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1040" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1040" t="n">
         <v>1</v>
       </c>
@@ -35111,8 +36699,14 @@
         <v>0</v>
       </c>
       <c r="I1041" t="inlineStr"/>
-      <c r="J1041" t="inlineStr"/>
-      <c r="K1041" t="inlineStr"/>
+      <c r="J1041" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1041" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1041" t="n">
         <v>1</v>
       </c>
@@ -35144,8 +36738,14 @@
         <v>0</v>
       </c>
       <c r="I1042" t="inlineStr"/>
-      <c r="J1042" t="inlineStr"/>
-      <c r="K1042" t="inlineStr"/>
+      <c r="J1042" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1042" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1042" t="n">
         <v>1</v>
       </c>
@@ -35177,8 +36777,14 @@
         <v>0</v>
       </c>
       <c r="I1043" t="inlineStr"/>
-      <c r="J1043" t="inlineStr"/>
-      <c r="K1043" t="inlineStr"/>
+      <c r="J1043" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1043" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1043" t="n">
         <v>1</v>
       </c>
@@ -35210,8 +36816,14 @@
         <v>0</v>
       </c>
       <c r="I1044" t="inlineStr"/>
-      <c r="J1044" t="inlineStr"/>
-      <c r="K1044" t="inlineStr"/>
+      <c r="J1044" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1044" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1044" t="n">
         <v>1</v>
       </c>
@@ -35243,8 +36855,14 @@
         <v>0</v>
       </c>
       <c r="I1045" t="inlineStr"/>
-      <c r="J1045" t="inlineStr"/>
-      <c r="K1045" t="inlineStr"/>
+      <c r="J1045" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1045" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1045" t="n">
         <v>1</v>
       </c>
@@ -35276,8 +36894,14 @@
         <v>0</v>
       </c>
       <c r="I1046" t="inlineStr"/>
-      <c r="J1046" t="inlineStr"/>
-      <c r="K1046" t="inlineStr"/>
+      <c r="J1046" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1046" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1046" t="n">
         <v>1</v>
       </c>
@@ -35309,8 +36933,14 @@
         <v>0</v>
       </c>
       <c r="I1047" t="inlineStr"/>
-      <c r="J1047" t="inlineStr"/>
-      <c r="K1047" t="inlineStr"/>
+      <c r="J1047" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1047" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1047" t="n">
         <v>1</v>
       </c>
@@ -35342,8 +36972,14 @@
         <v>0</v>
       </c>
       <c r="I1048" t="inlineStr"/>
-      <c r="J1048" t="inlineStr"/>
-      <c r="K1048" t="inlineStr"/>
+      <c r="J1048" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1048" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1048" t="n">
         <v>1</v>
       </c>
@@ -35375,8 +37011,14 @@
         <v>0</v>
       </c>
       <c r="I1049" t="inlineStr"/>
-      <c r="J1049" t="inlineStr"/>
-      <c r="K1049" t="inlineStr"/>
+      <c r="J1049" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1049" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1049" t="n">
         <v>1</v>
       </c>
@@ -35408,8 +37050,14 @@
         <v>0</v>
       </c>
       <c r="I1050" t="inlineStr"/>
-      <c r="J1050" t="inlineStr"/>
-      <c r="K1050" t="inlineStr"/>
+      <c r="J1050" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1050" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1050" t="n">
         <v>1</v>
       </c>
@@ -35441,8 +37089,14 @@
         <v>0</v>
       </c>
       <c r="I1051" t="inlineStr"/>
-      <c r="J1051" t="inlineStr"/>
-      <c r="K1051" t="inlineStr"/>
+      <c r="J1051" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1051" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1051" t="n">
         <v>1</v>
       </c>
@@ -35474,8 +37128,14 @@
         <v>0</v>
       </c>
       <c r="I1052" t="inlineStr"/>
-      <c r="J1052" t="inlineStr"/>
-      <c r="K1052" t="inlineStr"/>
+      <c r="J1052" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1052" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1052" t="n">
         <v>1</v>
       </c>
@@ -35507,8 +37167,14 @@
         <v>0</v>
       </c>
       <c r="I1053" t="inlineStr"/>
-      <c r="J1053" t="inlineStr"/>
-      <c r="K1053" t="inlineStr"/>
+      <c r="J1053" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1053" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1053" t="n">
         <v>1</v>
       </c>
@@ -35540,8 +37206,14 @@
         <v>0</v>
       </c>
       <c r="I1054" t="inlineStr"/>
-      <c r="J1054" t="inlineStr"/>
-      <c r="K1054" t="inlineStr"/>
+      <c r="J1054" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1054" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1054" t="n">
         <v>1</v>
       </c>
@@ -35573,8 +37245,14 @@
         <v>0</v>
       </c>
       <c r="I1055" t="inlineStr"/>
-      <c r="J1055" t="inlineStr"/>
-      <c r="K1055" t="inlineStr"/>
+      <c r="J1055" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1055" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1055" t="n">
         <v>1</v>
       </c>
@@ -35606,8 +37284,14 @@
         <v>0</v>
       </c>
       <c r="I1056" t="inlineStr"/>
-      <c r="J1056" t="inlineStr"/>
-      <c r="K1056" t="inlineStr"/>
+      <c r="J1056" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1056" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1056" t="n">
         <v>1</v>
       </c>
@@ -35639,8 +37323,14 @@
         <v>0</v>
       </c>
       <c r="I1057" t="inlineStr"/>
-      <c r="J1057" t="inlineStr"/>
-      <c r="K1057" t="inlineStr"/>
+      <c r="J1057" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1057" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1057" t="n">
         <v>1</v>
       </c>
@@ -35672,8 +37362,14 @@
         <v>0</v>
       </c>
       <c r="I1058" t="inlineStr"/>
-      <c r="J1058" t="inlineStr"/>
-      <c r="K1058" t="inlineStr"/>
+      <c r="J1058" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1058" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1058" t="n">
         <v>1</v>
       </c>
@@ -35705,8 +37401,14 @@
         <v>0</v>
       </c>
       <c r="I1059" t="inlineStr"/>
-      <c r="J1059" t="inlineStr"/>
-      <c r="K1059" t="inlineStr"/>
+      <c r="J1059" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1059" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1059" t="n">
         <v>1</v>
       </c>
@@ -35738,8 +37440,14 @@
         <v>0</v>
       </c>
       <c r="I1060" t="inlineStr"/>
-      <c r="J1060" t="inlineStr"/>
-      <c r="K1060" t="inlineStr"/>
+      <c r="J1060" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1060" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1060" t="n">
         <v>1</v>
       </c>
@@ -35771,8 +37479,14 @@
         <v>0</v>
       </c>
       <c r="I1061" t="inlineStr"/>
-      <c r="J1061" t="inlineStr"/>
-      <c r="K1061" t="inlineStr"/>
+      <c r="J1061" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1061" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1061" t="n">
         <v>1</v>
       </c>
@@ -35804,8 +37518,14 @@
         <v>0</v>
       </c>
       <c r="I1062" t="inlineStr"/>
-      <c r="J1062" t="inlineStr"/>
-      <c r="K1062" t="inlineStr"/>
+      <c r="J1062" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1062" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1062" t="n">
         <v>1</v>
       </c>
@@ -35837,8 +37557,14 @@
         <v>0</v>
       </c>
       <c r="I1063" t="inlineStr"/>
-      <c r="J1063" t="inlineStr"/>
-      <c r="K1063" t="inlineStr"/>
+      <c r="J1063" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1063" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1063" t="n">
         <v>1</v>
       </c>
@@ -35870,8 +37596,14 @@
         <v>0</v>
       </c>
       <c r="I1064" t="inlineStr"/>
-      <c r="J1064" t="inlineStr"/>
-      <c r="K1064" t="inlineStr"/>
+      <c r="J1064" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1064" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1064" t="n">
         <v>1</v>
       </c>
@@ -35903,8 +37635,14 @@
         <v>0</v>
       </c>
       <c r="I1065" t="inlineStr"/>
-      <c r="J1065" t="inlineStr"/>
-      <c r="K1065" t="inlineStr"/>
+      <c r="J1065" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1065" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1065" t="n">
         <v>1</v>
       </c>
@@ -35936,8 +37674,14 @@
         <v>0</v>
       </c>
       <c r="I1066" t="inlineStr"/>
-      <c r="J1066" t="inlineStr"/>
-      <c r="K1066" t="inlineStr"/>
+      <c r="J1066" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1066" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1066" t="n">
         <v>1</v>
       </c>
@@ -35969,8 +37713,14 @@
         <v>0</v>
       </c>
       <c r="I1067" t="inlineStr"/>
-      <c r="J1067" t="inlineStr"/>
-      <c r="K1067" t="inlineStr"/>
+      <c r="J1067" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1067" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1067" t="n">
         <v>1</v>
       </c>
@@ -36002,8 +37752,14 @@
         <v>0</v>
       </c>
       <c r="I1068" t="inlineStr"/>
-      <c r="J1068" t="inlineStr"/>
-      <c r="K1068" t="inlineStr"/>
+      <c r="J1068" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1068" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1068" t="n">
         <v>1</v>
       </c>
@@ -36035,8 +37791,14 @@
         <v>0</v>
       </c>
       <c r="I1069" t="inlineStr"/>
-      <c r="J1069" t="inlineStr"/>
-      <c r="K1069" t="inlineStr"/>
+      <c r="J1069" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1069" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1069" t="n">
         <v>1</v>
       </c>
@@ -36068,8 +37830,14 @@
         <v>0</v>
       </c>
       <c r="I1070" t="inlineStr"/>
-      <c r="J1070" t="inlineStr"/>
-      <c r="K1070" t="inlineStr"/>
+      <c r="J1070" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1070" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1070" t="n">
         <v>1</v>
       </c>
@@ -36101,8 +37869,14 @@
         <v>0</v>
       </c>
       <c r="I1071" t="inlineStr"/>
-      <c r="J1071" t="inlineStr"/>
-      <c r="K1071" t="inlineStr"/>
+      <c r="J1071" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1071" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1071" t="n">
         <v>1</v>
       </c>
@@ -36134,8 +37908,14 @@
         <v>0</v>
       </c>
       <c r="I1072" t="inlineStr"/>
-      <c r="J1072" t="inlineStr"/>
-      <c r="K1072" t="inlineStr"/>
+      <c r="J1072" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1072" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1072" t="n">
         <v>1</v>
       </c>
@@ -36167,8 +37947,14 @@
         <v>0</v>
       </c>
       <c r="I1073" t="inlineStr"/>
-      <c r="J1073" t="inlineStr"/>
-      <c r="K1073" t="inlineStr"/>
+      <c r="J1073" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1073" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1073" t="n">
         <v>1</v>
       </c>
@@ -36200,8 +37986,14 @@
         <v>0</v>
       </c>
       <c r="I1074" t="inlineStr"/>
-      <c r="J1074" t="inlineStr"/>
-      <c r="K1074" t="inlineStr"/>
+      <c r="J1074" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1074" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1074" t="n">
         <v>1</v>
       </c>
@@ -36233,8 +38025,14 @@
         <v>0</v>
       </c>
       <c r="I1075" t="inlineStr"/>
-      <c r="J1075" t="inlineStr"/>
-      <c r="K1075" t="inlineStr"/>
+      <c r="J1075" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1075" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1075" t="n">
         <v>1</v>
       </c>
@@ -36266,8 +38064,14 @@
         <v>0</v>
       </c>
       <c r="I1076" t="inlineStr"/>
-      <c r="J1076" t="inlineStr"/>
-      <c r="K1076" t="inlineStr"/>
+      <c r="J1076" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1076" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1076" t="n">
         <v>1</v>
       </c>
@@ -36299,8 +38103,14 @@
         <v>0</v>
       </c>
       <c r="I1077" t="inlineStr"/>
-      <c r="J1077" t="inlineStr"/>
-      <c r="K1077" t="inlineStr"/>
+      <c r="J1077" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1077" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1077" t="n">
         <v>1</v>
       </c>
@@ -36332,8 +38142,14 @@
         <v>0</v>
       </c>
       <c r="I1078" t="inlineStr"/>
-      <c r="J1078" t="inlineStr"/>
-      <c r="K1078" t="inlineStr"/>
+      <c r="J1078" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1078" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1078" t="n">
         <v>1</v>
       </c>
@@ -36365,8 +38181,14 @@
         <v>0</v>
       </c>
       <c r="I1079" t="inlineStr"/>
-      <c r="J1079" t="inlineStr"/>
-      <c r="K1079" t="inlineStr"/>
+      <c r="J1079" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1079" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1079" t="n">
         <v>1</v>
       </c>
@@ -36398,8 +38220,14 @@
         <v>0</v>
       </c>
       <c r="I1080" t="inlineStr"/>
-      <c r="J1080" t="inlineStr"/>
-      <c r="K1080" t="inlineStr"/>
+      <c r="J1080" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1080" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1080" t="n">
         <v>1</v>
       </c>
@@ -36431,8 +38259,14 @@
         <v>0</v>
       </c>
       <c r="I1081" t="inlineStr"/>
-      <c r="J1081" t="inlineStr"/>
-      <c r="K1081" t="inlineStr"/>
+      <c r="J1081" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1081" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1081" t="n">
         <v>1</v>
       </c>
@@ -36464,8 +38298,14 @@
         <v>0</v>
       </c>
       <c r="I1082" t="inlineStr"/>
-      <c r="J1082" t="inlineStr"/>
-      <c r="K1082" t="inlineStr"/>
+      <c r="J1082" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1082" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1082" t="n">
         <v>1</v>
       </c>
@@ -36497,8 +38337,14 @@
         <v>0</v>
       </c>
       <c r="I1083" t="inlineStr"/>
-      <c r="J1083" t="inlineStr"/>
-      <c r="K1083" t="inlineStr"/>
+      <c r="J1083" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1083" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1083" t="n">
         <v>1</v>
       </c>
@@ -36530,8 +38376,14 @@
         <v>0</v>
       </c>
       <c r="I1084" t="inlineStr"/>
-      <c r="J1084" t="inlineStr"/>
-      <c r="K1084" t="inlineStr"/>
+      <c r="J1084" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1084" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1084" t="n">
         <v>1</v>
       </c>
@@ -36563,8 +38415,14 @@
         <v>0</v>
       </c>
       <c r="I1085" t="inlineStr"/>
-      <c r="J1085" t="inlineStr"/>
-      <c r="K1085" t="inlineStr"/>
+      <c r="J1085" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1085" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1085" t="n">
         <v>1</v>
       </c>
@@ -36596,8 +38454,14 @@
         <v>0</v>
       </c>
       <c r="I1086" t="inlineStr"/>
-      <c r="J1086" t="inlineStr"/>
-      <c r="K1086" t="inlineStr"/>
+      <c r="J1086" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1086" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1086" t="n">
         <v>1</v>
       </c>
@@ -36629,8 +38493,14 @@
         <v>0</v>
       </c>
       <c r="I1087" t="inlineStr"/>
-      <c r="J1087" t="inlineStr"/>
-      <c r="K1087" t="inlineStr"/>
+      <c r="J1087" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1087" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1087" t="n">
         <v>1</v>
       </c>
@@ -36662,8 +38532,14 @@
         <v>0</v>
       </c>
       <c r="I1088" t="inlineStr"/>
-      <c r="J1088" t="inlineStr"/>
-      <c r="K1088" t="inlineStr"/>
+      <c r="J1088" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1088" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1088" t="n">
         <v>1</v>
       </c>
@@ -36695,8 +38571,14 @@
         <v>0</v>
       </c>
       <c r="I1089" t="inlineStr"/>
-      <c r="J1089" t="inlineStr"/>
-      <c r="K1089" t="inlineStr"/>
+      <c r="J1089" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1089" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1089" t="n">
         <v>1</v>
       </c>
@@ -36728,8 +38610,14 @@
         <v>0</v>
       </c>
       <c r="I1090" t="inlineStr"/>
-      <c r="J1090" t="inlineStr"/>
-      <c r="K1090" t="inlineStr"/>
+      <c r="J1090" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1090" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1090" t="n">
         <v>1</v>
       </c>
@@ -36761,8 +38649,14 @@
         <v>0</v>
       </c>
       <c r="I1091" t="inlineStr"/>
-      <c r="J1091" t="inlineStr"/>
-      <c r="K1091" t="inlineStr"/>
+      <c r="J1091" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1091" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1091" t="n">
         <v>1</v>
       </c>
@@ -36794,8 +38688,14 @@
         <v>0</v>
       </c>
       <c r="I1092" t="inlineStr"/>
-      <c r="J1092" t="inlineStr"/>
-      <c r="K1092" t="inlineStr"/>
+      <c r="J1092" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1092" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1092" t="n">
         <v>1</v>
       </c>
@@ -36827,8 +38727,14 @@
         <v>0</v>
       </c>
       <c r="I1093" t="inlineStr"/>
-      <c r="J1093" t="inlineStr"/>
-      <c r="K1093" t="inlineStr"/>
+      <c r="J1093" t="n">
+        <v>155200</v>
+      </c>
+      <c r="K1093" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1093" t="n">
         <v>1</v>
       </c>
